--- a/result/chenting_20151124_noon_2.mat4.xlsx
+++ b/result/chenting_20151124_noon_2.mat4.xlsx
@@ -415,16 +415,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.364338497320811</v>
+        <v>51.01577377319336</v>
       </c>
       <c r="C2" t="n">
-        <v>158073.8802083333</v>
+        <v>13720.69954427083</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3328195785482724</v>
+        <v>43.86274274190267</v>
       </c>
       <c r="E2" t="n">
-        <v>158073.8489583333</v>
+        <v>13713.54630533854</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -432,16 +432,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4950058162212372</v>
+        <v>58.80305735270182</v>
       </c>
       <c r="C3" t="n">
-        <v>154552.9166666667</v>
+        <v>13473.59212239583</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3925857854386171</v>
+        <v>53.57217661539713</v>
       </c>
       <c r="E3" t="n">
-        <v>154552.8151041667</v>
+        <v>13468.361328125</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -449,16 +449,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2377844452857971</v>
+        <v>3.36835789680481</v>
       </c>
       <c r="C4" t="n">
-        <v>151108.34375</v>
+        <v>13166.794921875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2513254284858704</v>
+        <v>4.801939845085144</v>
       </c>
       <c r="E4" t="n">
-        <v>151108.36328125</v>
+        <v>13168.22867838542</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -466,16 +466,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4160675207773845</v>
+        <v>12.06023724873861</v>
       </c>
       <c r="C5" t="n">
-        <v>147742.9947916667</v>
+        <v>12927.84440104167</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4218301897247632</v>
+        <v>14.38813519477844</v>
       </c>
       <c r="E5" t="n">
-        <v>147743.0013020833</v>
+        <v>12930.17244466146</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -483,16 +483,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1121099044879278</v>
+        <v>18.29931131998698</v>
       </c>
       <c r="C6" t="n">
-        <v>144455.5208333333</v>
+        <v>12690.51529947917</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2477529961615801</v>
+        <v>23.58955939610799</v>
       </c>
       <c r="E6" t="n">
-        <v>144455.6549479167</v>
+        <v>12695.80541992188</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -500,16 +500,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2549000084400177</v>
+        <v>8.960308392842611</v>
       </c>
       <c r="C7" t="n">
-        <v>141245.0572916667</v>
+        <v>12442.21614583333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2870617061853409</v>
+        <v>16.5642081896464</v>
       </c>
       <c r="E7" t="n">
-        <v>141245.0833333333</v>
+        <v>12449.82006835938</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -517,16 +517,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1041076729695002</v>
+        <v>1.709815382957458</v>
       </c>
       <c r="C8" t="n">
-        <v>138108.7447916667</v>
+        <v>12200.57291666667</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1846318164219459</v>
+        <v>7.644514163335164</v>
       </c>
       <c r="E8" t="n">
-        <v>138108.8255208333</v>
+        <v>12206.50789388021</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -534,16 +534,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.144939199090004</v>
+        <v>7.855048974355062</v>
       </c>
       <c r="C9" t="n">
-        <v>135044.875</v>
+        <v>11976.73470052083</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1840578448027372</v>
+        <v>2.236035774151484</v>
       </c>
       <c r="E9" t="n">
-        <v>135044.9166666667</v>
+        <v>11971.11580403646</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -551,16 +551,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3072749276955922</v>
+        <v>5.715113480885823</v>
       </c>
       <c r="C10" t="n">
-        <v>132051.25</v>
+        <v>11748.82063802083</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3069751796623071</v>
+        <v>1.690609668691953</v>
       </c>
       <c r="E10" t="n">
-        <v>132051.2434895833</v>
+        <v>11744.79606119792</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -568,16 +568,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04589443157116572</v>
+        <v>8.017913659413656</v>
       </c>
       <c r="C11" t="n">
-        <v>129125.3125</v>
+        <v>11529.53157552083</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2278954739061495</v>
+        <v>4.404617786407471</v>
       </c>
       <c r="E11" t="n">
-        <v>129125.494140625</v>
+        <v>11525.91837565104</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -585,16 +585,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1725215315818787</v>
+        <v>6.705564498901367</v>
       </c>
       <c r="C12" t="n">
-        <v>126265.9609375</v>
+        <v>11310.75813802083</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1942918996016184</v>
+        <v>4.504600783189137</v>
       </c>
       <c r="E12" t="n">
-        <v>126265.9837239583</v>
+        <v>11308.55737304688</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -602,16 +602,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1127879818280538</v>
+        <v>5.876090526580811</v>
       </c>
       <c r="C13" t="n">
-        <v>123470.7604166667</v>
+        <v>11096.59375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1883501093834639</v>
+        <v>5.051489114761353</v>
       </c>
       <c r="E13" t="n">
-        <v>123470.8372395833</v>
+        <v>11095.76912434896</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -619,16 +619,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1352457652489344</v>
+        <v>5.004795392354329</v>
       </c>
       <c r="C14" t="n">
-        <v>120738.2369791667</v>
+        <v>10886.447265625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1725864745676517</v>
+        <v>3.853531440099081</v>
       </c>
       <c r="E14" t="n">
-        <v>120738.2734375</v>
+        <v>10885.2958984375</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -636,16 +636,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1062820355097453</v>
+        <v>3.725552002588908</v>
       </c>
       <c r="C15" t="n">
-        <v>118066.5833333333</v>
+        <v>10679.8876953125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1491569274415573</v>
+        <v>0.9250812729199728</v>
       </c>
       <c r="E15" t="n">
-        <v>118066.6263020833</v>
+        <v>10677.08723958333</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -653,16 +653,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1382764428853989</v>
+        <v>0.763252834479014</v>
       </c>
       <c r="C16" t="n">
-        <v>115454.3333333333</v>
+        <v>10475.47135416667</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1494212131947279</v>
+        <v>2.247619152069092</v>
       </c>
       <c r="E16" t="n">
-        <v>115454.3450520833</v>
+        <v>10476.95572916667</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -670,16 +670,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1016382252176603</v>
+        <v>0.9699670076370239</v>
       </c>
       <c r="C17" t="n">
-        <v>112899.8125</v>
+        <v>10278.01432291667</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1448880210518837</v>
+        <v>1.787448058525721</v>
       </c>
       <c r="E17" t="n">
-        <v>112899.8567708333</v>
+        <v>10278.83146158854</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -687,16 +687,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1121663053830465</v>
+        <v>2.942220290501913</v>
       </c>
       <c r="C18" t="n">
-        <v>110401.6588541667</v>
+        <v>10086.04850260417</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1432263068854809</v>
+        <v>1.782967468102773</v>
       </c>
       <c r="E18" t="n">
-        <v>110401.6907552083</v>
+        <v>10084.88948567708</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -704,16 +704,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06731851895650227</v>
+        <v>1.180589586496353</v>
       </c>
       <c r="C19" t="n">
-        <v>107958.3880208333</v>
+        <v>9893.966145833334</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1271508916591605</v>
+        <v>0.9232011338075002</v>
       </c>
       <c r="E19" t="n">
-        <v>107958.4479166667</v>
+        <v>9893.708414713541</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -721,16 +721,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.120237963895003</v>
+        <v>1.743856211503347</v>
       </c>
       <c r="C20" t="n">
-        <v>105568.7447916667</v>
+        <v>9707.750651041666</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1415521527330081</v>
+        <v>0.2819064495464166</v>
       </c>
       <c r="E20" t="n">
-        <v>105568.7662760417</v>
+        <v>9706.28857421875</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -738,16 +738,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08462761094172795</v>
+        <v>1.75163197517395</v>
       </c>
       <c r="C21" t="n">
-        <v>103231.25</v>
+        <v>9524.456705729166</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1292383167892694</v>
+        <v>0.2806348490218322</v>
       </c>
       <c r="E21" t="n">
-        <v>103231.29296875</v>
+        <v>9522.985677083334</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -755,16 +755,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.136643074452877</v>
+        <v>1.983064532279968</v>
       </c>
       <c r="C22" t="n">
-        <v>100944.7942708333</v>
+        <v>9344.7626953125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1359726091225942</v>
+        <v>0.5838311264912287</v>
       </c>
       <c r="E22" t="n">
-        <v>100944.791015625</v>
+        <v>9343.363037109375</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -772,16 +772,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1338229129711787</v>
+        <v>0.9933564563592275</v>
       </c>
       <c r="C23" t="n">
-        <v>98708.0234375</v>
+        <v>9167.174153645834</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1305008480946223</v>
+        <v>0.2585413033763568</v>
       </c>
       <c r="E23" t="n">
-        <v>98708.021484375</v>
+        <v>9166.439208984375</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -789,16 +789,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2244838128487269</v>
+        <v>0.9228947858015696</v>
       </c>
       <c r="C24" t="n">
-        <v>96519.8984375</v>
+        <v>8993.7568359375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1626715523501237</v>
+        <v>0.2406976210574309</v>
       </c>
       <c r="E24" t="n">
-        <v>96519.83463541667</v>
+        <v>8993.07470703125</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,16 +806,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.08479839066664378</v>
+        <v>0.6655511210362116</v>
       </c>
       <c r="C25" t="n">
-        <v>94378.94270833333</v>
+        <v>8823.339192708334</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1200736040870349</v>
+        <v>0.1203124100963275</v>
       </c>
       <c r="E25" t="n">
-        <v>94378.98046875</v>
+        <v>8822.794189453125</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -823,16 +823,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2142105400562286</v>
+        <v>0.7466519872347513</v>
       </c>
       <c r="C26" t="n">
-        <v>92284.53385416667</v>
+        <v>8656.389322916666</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1662335079163313</v>
+        <v>0.1290697560956081</v>
       </c>
       <c r="E26" t="n">
-        <v>92284.486328125</v>
+        <v>8655.771647135416</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -840,16 +840,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1124987105528514</v>
+        <v>0.8581570982933044</v>
       </c>
       <c r="C27" t="n">
-        <v>90235.11197916667</v>
+        <v>8492.536783854166</v>
       </c>
       <c r="D27" t="n">
-        <v>0.133348664889733</v>
+        <v>0.1132377541313569</v>
       </c>
       <c r="E27" t="n">
-        <v>90235.1328125</v>
+        <v>8491.7919921875</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -857,16 +857,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2404625316460927</v>
+        <v>0.8263906935850779</v>
       </c>
       <c r="C28" t="n">
-        <v>88230.0703125</v>
+        <v>8331.5634765625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1536131501197815</v>
+        <v>0.1125700796643893</v>
       </c>
       <c r="E28" t="n">
-        <v>88229.98177083333</v>
+        <v>8330.849934895834</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -874,16 +874,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2061289449532827</v>
+        <v>0.6381799727678299</v>
       </c>
       <c r="C29" t="n">
-        <v>86267.99479166667</v>
+        <v>8173.3994140625</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1478962718198697</v>
+        <v>0.1356492110838493</v>
       </c>
       <c r="E29" t="n">
-        <v>86267.93815104167</v>
+        <v>8172.896931966146</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -891,16 +891,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1970180422067642</v>
+        <v>0.8743430177370707</v>
       </c>
       <c r="C30" t="n">
-        <v>84348.13541666667</v>
+        <v>8018.568359375</v>
       </c>
       <c r="D30" t="n">
-        <v>0.134965980425477</v>
+        <v>0.09536736148099105</v>
       </c>
       <c r="E30" t="n">
-        <v>84348.07291666667</v>
+        <v>8017.789225260417</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -908,16 +908,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1463404943545659</v>
+        <v>0.6038879056771597</v>
       </c>
       <c r="C31" t="n">
-        <v>82469.40885416667</v>
+        <v>7866.087727864583</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1254356609036525</v>
+        <v>0.1017373570551475</v>
       </c>
       <c r="E31" t="n">
-        <v>82469.38997395833</v>
+        <v>7865.585693359375</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -925,16 +925,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1582206239302953</v>
+        <v>0.5943203022082647</v>
       </c>
       <c r="C32" t="n">
-        <v>80631.01822916667</v>
+        <v>7716.676920572917</v>
       </c>
       <c r="D32" t="n">
-        <v>0.123976523677508</v>
+        <v>0.1061515050629775</v>
       </c>
       <c r="E32" t="n">
-        <v>80630.98307291667</v>
+        <v>7716.188680013021</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -942,16 +942,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1403848305344582</v>
+        <v>0.4227071007092794</v>
       </c>
       <c r="C33" t="n">
-        <v>78831.97916666667</v>
+        <v>7569.869954427083</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1210694884260495</v>
+        <v>0.1209476223836343</v>
       </c>
       <c r="E33" t="n">
-        <v>78831.95768229167</v>
+        <v>7569.568155924479</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -959,16 +959,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.13997516532739</v>
+        <v>0.4676602383454641</v>
       </c>
       <c r="C34" t="n">
-        <v>77071.40885416667</v>
+        <v>7425.982259114583</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1207719401766856</v>
+        <v>0.1059938807350894</v>
       </c>
       <c r="E34" t="n">
-        <v>77071.38606770833</v>
+        <v>7425.620686848958</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -976,16 +976,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1258032744129499</v>
+        <v>0.4759705364704132</v>
       </c>
       <c r="C35" t="n">
-        <v>75348.46354166667</v>
+        <v>7284.722981770833</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1172705851495266</v>
+        <v>0.1204841615011295</v>
       </c>
       <c r="E35" t="n">
-        <v>75348.453125</v>
+        <v>7284.367553710938</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -993,16 +993,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1487719466288885</v>
+        <v>0.5068280796209971</v>
       </c>
       <c r="C36" t="n">
-        <v>73662.36979166667</v>
+        <v>7146.09716796875</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1196124876538913</v>
+        <v>0.1241388584797581</v>
       </c>
       <c r="E36" t="n">
-        <v>73662.33854166667</v>
+        <v>7145.714518229167</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1010,16 +1010,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1485887219508489</v>
+        <v>0.48841659228007</v>
       </c>
       <c r="C37" t="n">
-        <v>72012.21354166667</v>
+        <v>7009.986979166667</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1183814499527216</v>
+        <v>0.1040373200861116</v>
       </c>
       <c r="E37" t="n">
-        <v>72012.1796875</v>
+        <v>7009.6025390625</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1027,16 +1027,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1498048454523087</v>
+        <v>0.4402308563391368</v>
       </c>
       <c r="C38" t="n">
-        <v>70397.26822916667</v>
+        <v>6876.362141927083</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1186019697537025</v>
+        <v>0.1092675036440293</v>
       </c>
       <c r="E38" t="n">
-        <v>70397.23567708333</v>
+        <v>6876.031127929688</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1044,16 +1044,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.14203658948342</v>
+        <v>0.4323327392339706</v>
       </c>
       <c r="C39" t="n">
-        <v>68816.73697916667</v>
+        <v>6745.250813802083</v>
       </c>
       <c r="D39" t="n">
-        <v>0.116970074052612</v>
+        <v>0.1460133697837591</v>
       </c>
       <c r="E39" t="n">
-        <v>68816.71028645833</v>
+        <v>6744.964314778646</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1061,16 +1061,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1893755694230398</v>
+        <v>0.3243422408898671</v>
       </c>
       <c r="C40" t="n">
-        <v>67269.94791666667</v>
+        <v>6616.473307291667</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1325907182569305</v>
+        <v>0.09768431447446346</v>
       </c>
       <c r="E40" t="n">
-        <v>67269.888671875</v>
+        <v>6616.246663411458</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1078,16 +1078,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1353508333365122</v>
+        <v>0.2388557096322378</v>
       </c>
       <c r="C41" t="n">
-        <v>65755.99479166667</v>
+        <v>6490.1064453125</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1163962359229724</v>
+        <v>0.1048594874640306</v>
       </c>
       <c r="E41" t="n">
-        <v>65755.9765625</v>
+        <v>6489.972574869792</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1095,16 +1095,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1782708664735158</v>
+        <v>0.3390041490395864</v>
       </c>
       <c r="C42" t="n">
-        <v>64274.38411458334</v>
+        <v>6366.26123046875</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1253778807198008</v>
+        <v>0.08924976146469514</v>
       </c>
       <c r="E42" t="n">
-        <v>64274.33268229166</v>
+        <v>6366.011596679688</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1112,16 +1112,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1620070387919744</v>
+        <v>0.1908643394708633</v>
       </c>
       <c r="C43" t="n">
-        <v>62824.24739583334</v>
+        <v>6244.464192708333</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1198872625827789</v>
+        <v>0.1193036461869876</v>
       </c>
       <c r="E43" t="n">
-        <v>62824.20638020834</v>
+        <v>6244.392781575521</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1129,16 +1129,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1539752682050069</v>
+        <v>0.2779543002446492</v>
       </c>
       <c r="C44" t="n">
-        <v>61404.99739583334</v>
+        <v>6125.163248697917</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1181445370117823</v>
+        <v>0.1052211162944635</v>
       </c>
       <c r="E44" t="n">
-        <v>61404.9619140625</v>
+        <v>6124.990478515625</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1146,16 +1146,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1709080040454865</v>
+        <v>0.3271940400203069</v>
       </c>
       <c r="C45" t="n">
-        <v>60015.96354166666</v>
+        <v>6008.04052734375</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1221285276114941</v>
+        <v>0.1502939288814863</v>
       </c>
       <c r="E45" t="n">
-        <v>60015.91471354166</v>
+        <v>6007.863606770833</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1163,16 +1163,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1513679623603821</v>
+        <v>0.3818606734275818</v>
       </c>
       <c r="C46" t="n">
-        <v>58656.45572916666</v>
+        <v>5893.1025390625</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1181334170202414</v>
+        <v>0.1046974460283915</v>
       </c>
       <c r="E46" t="n">
-        <v>58656.42317708334</v>
+        <v>5892.825398763021</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1180,16 +1180,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1734283268451691</v>
+        <v>0.4216556549072266</v>
       </c>
       <c r="C47" t="n">
-        <v>57325.92838541666</v>
+        <v>5780.277669270833</v>
       </c>
       <c r="D47" t="n">
-        <v>0.121683976923426</v>
+        <v>0.1111509470889966</v>
       </c>
       <c r="E47" t="n">
-        <v>57325.87565104166</v>
+        <v>5779.967122395833</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1197,16 +1197,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1613113631804784</v>
+        <v>0.6442858477433523</v>
       </c>
       <c r="C48" t="n">
-        <v>56023.67578125</v>
+        <v>5669.735026041667</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1190664824098349</v>
+        <v>0.1154687150071065</v>
       </c>
       <c r="E48" t="n">
-        <v>56023.634765625</v>
+        <v>5669.206258138021</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1214,16 +1214,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1670540620883306</v>
+        <v>0.7647920846939087</v>
       </c>
       <c r="C49" t="n">
-        <v>54749.16666666666</v>
+        <v>5561.147135416667</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1203986189017693</v>
+        <v>0.0937274657189846</v>
       </c>
       <c r="E49" t="n">
-        <v>54749.12044270834</v>
+        <v>5560.476033528646</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1231,16 +1231,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1709111034870148</v>
+        <v>0.6407024761041006</v>
       </c>
       <c r="C50" t="n">
-        <v>53501.79296875</v>
+        <v>5454.33984375</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1202191803604364</v>
+        <v>0.1293280112246672</v>
       </c>
       <c r="E50" t="n">
-        <v>53501.74088541666</v>
+        <v>5453.828491210938</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1248,16 +1248,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1657376786073049</v>
+        <v>0.8643445173899332</v>
       </c>
       <c r="C51" t="n">
-        <v>52280.96744791666</v>
+        <v>5349.869791666667</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1192347162092725</v>
+        <v>0.1095425821840763</v>
       </c>
       <c r="E51" t="n">
-        <v>52280.91959635416</v>
+        <v>5349.114868164062</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1265,16 +1265,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1760506182909012</v>
+        <v>0.913738821943601</v>
       </c>
       <c r="C52" t="n">
-        <v>51086.16796875</v>
+        <v>5247.173014322917</v>
       </c>
       <c r="D52" t="n">
-        <v>0.121255524456501</v>
+        <v>0.1067720794429382</v>
       </c>
       <c r="E52" t="n">
-        <v>51086.11360677084</v>
+        <v>5246.366088867188</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1282,16 +1282,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1802941809097926</v>
+        <v>0.7957791636387507</v>
       </c>
       <c r="C53" t="n">
-        <v>49916.8203125</v>
+        <v>5146.22607421875</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1220323611050844</v>
+        <v>0.1007095708822211</v>
       </c>
       <c r="E53" t="n">
-        <v>49916.7626953125</v>
+        <v>5145.530843098958</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1299,16 +1299,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.2208660393953323</v>
+        <v>1.236983398596446</v>
       </c>
       <c r="C54" t="n">
-        <v>48772.43619791666</v>
+        <v>5047.715169270833</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1303362461427847</v>
+        <v>0.1952789276838303</v>
       </c>
       <c r="E54" t="n">
-        <v>48772.345703125</v>
+        <v>5046.673258463542</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1316,16 +1316,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.2008128017187119</v>
+        <v>0.9456649820009867</v>
       </c>
       <c r="C55" t="n">
-        <v>47652.40625</v>
+        <v>4950.319661458333</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1265343070651094</v>
+        <v>0.1298769606898228</v>
       </c>
       <c r="E55" t="n">
-        <v>47652.33333333334</v>
+        <v>4949.503865559896</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1333,16 +1333,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.2064846952756246</v>
+        <v>1.190682013829549</v>
       </c>
       <c r="C56" t="n">
-        <v>46556.296875</v>
+        <v>4855.273600260417</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1273744810993473</v>
+        <v>0.1157913679877917</v>
       </c>
       <c r="E56" t="n">
-        <v>46556.216796875</v>
+        <v>4854.198852539062</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1350,16 +1350,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2024592210849126</v>
+        <v>0.9253578384717306</v>
       </c>
       <c r="C57" t="n">
-        <v>45483.58203125</v>
+        <v>4761.498209635417</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1266927343482772</v>
+        <v>0.1060302425175905</v>
       </c>
       <c r="E57" t="n">
-        <v>45483.50520833334</v>
+        <v>4760.678751627604</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1367,16 +1367,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.2080432921648026</v>
+        <v>1.100186049938202</v>
       </c>
       <c r="C58" t="n">
-        <v>44433.79296875</v>
+        <v>4669.923828125</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1276904058953126</v>
+        <v>0.1055099355677764</v>
       </c>
       <c r="E58" t="n">
-        <v>44433.7138671875</v>
+        <v>4668.929280598958</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1384,16 +1384,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.2143718302249908</v>
+        <v>0.7975573937098185</v>
       </c>
       <c r="C59" t="n">
-        <v>43406.4375</v>
+        <v>4579.579264322917</v>
       </c>
       <c r="D59" t="n">
-        <v>0.128892001695931</v>
+        <v>0.09436759104331334</v>
       </c>
       <c r="E59" t="n">
-        <v>43406.35123697916</v>
+        <v>4578.876139322917</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1401,16 +1401,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.200742373863856</v>
+        <v>0.5533922662337621</v>
       </c>
       <c r="C60" t="n">
-        <v>42401.04427083334</v>
+        <v>4490.972330729167</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1281129131093621</v>
+        <v>0.11561853873233</v>
       </c>
       <c r="E60" t="n">
-        <v>42400.97135416666</v>
+        <v>4490.534586588542</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1418,16 +1418,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1976981063683828</v>
+        <v>0.7753309110800425</v>
       </c>
       <c r="C61" t="n">
-        <v>41417.18619791666</v>
+        <v>4404.484375</v>
       </c>
       <c r="D61" t="n">
-        <v>0.128069953682522</v>
+        <v>0.1243499107658863</v>
       </c>
       <c r="E61" t="n">
-        <v>41417.1162109375</v>
+        <v>4403.833333333333</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1435,16 +1435,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.2194488992293676</v>
+        <v>0.4702625473340352</v>
       </c>
       <c r="C62" t="n">
-        <v>40454.42578125</v>
+        <v>4319.095703125</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1304207459713022</v>
+        <v>0.100902130206426</v>
       </c>
       <c r="E62" t="n">
-        <v>40454.33658854166</v>
+        <v>4318.726399739583</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1452,16 +1452,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.2294378827015559</v>
+        <v>0.66415074467659</v>
       </c>
       <c r="C63" t="n">
-        <v>39512.30338541666</v>
+        <v>4235.8017578125</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1324873755996426</v>
+        <v>0.121480372423927</v>
       </c>
       <c r="E63" t="n">
-        <v>39512.20670572916</v>
+        <v>4235.259155273438</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1469,16 +1469,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2112539261579514</v>
+        <v>0.3103652944167455</v>
       </c>
       <c r="C64" t="n">
-        <v>38590.36328125</v>
+        <v>4153.525227864583</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1303296514476339</v>
+        <v>0.1068771320084731</v>
       </c>
       <c r="E64" t="n">
-        <v>38590.28287760416</v>
+        <v>4153.32177734375</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1486,16 +1486,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2438824971516927</v>
+        <v>0.2950405130783717</v>
       </c>
       <c r="C65" t="n">
-        <v>37688.28385416666</v>
+        <v>4073.123128255208</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1357032973319292</v>
+        <v>0.1662286308904489</v>
       </c>
       <c r="E65" t="n">
-        <v>37688.17545572916</v>
+        <v>4072.994344075521</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1503,16 +1503,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.2224665482838949</v>
+        <v>0.410966823498408</v>
       </c>
       <c r="C66" t="n">
-        <v>36805.54296875</v>
+        <v>3994.36279296875</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1329524905110399</v>
+        <v>0.1250809182723363</v>
       </c>
       <c r="E66" t="n">
-        <v>36805.453125</v>
+        <v>3994.076985677083</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1520,16 +1520,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.222742905219396</v>
+        <v>0.5100414976477623</v>
       </c>
       <c r="C67" t="n">
-        <v>35941.81640625</v>
+        <v>3917.068115234375</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1336700487881899</v>
+        <v>0.09717261729141076</v>
       </c>
       <c r="E67" t="n">
-        <v>35941.72721354166</v>
+        <v>3916.655293782552</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1537,16 +1537,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2489214738210042</v>
+        <v>0.3600600759188334</v>
       </c>
       <c r="C68" t="n">
-        <v>35096.72526041666</v>
+        <v>3840.980387369792</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1371172579626242</v>
+        <v>0.206350871672233</v>
       </c>
       <c r="E68" t="n">
-        <v>35096.61393229166</v>
+        <v>3840.826700846354</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1554,16 +1554,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.2321423639853795</v>
+        <v>0.6182390302419662</v>
       </c>
       <c r="C69" t="n">
-        <v>34269.81901041666</v>
+        <v>3766.732259114583</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1357484487816691</v>
+        <v>0.1594104133546352</v>
       </c>
       <c r="E69" t="n">
-        <v>34269.72200520834</v>
+        <v>3766.273457845052</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1571,16 +1571,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.2415328274170558</v>
+        <v>0.581274633606275</v>
       </c>
       <c r="C70" t="n">
-        <v>33460.79557291666</v>
+        <v>3693.593505859375</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1365733621641994</v>
+        <v>0.1156290989990036</v>
       </c>
       <c r="E70" t="n">
-        <v>33460.69108072916</v>
+        <v>3693.127848307292</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1588,16 +1588,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2381698588530222</v>
+        <v>0.3478653853138288</v>
       </c>
       <c r="C71" t="n">
-        <v>32669.236328125</v>
+        <v>3621.63818359375</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1367530499895414</v>
+        <v>0.1014319242288669</v>
       </c>
       <c r="E71" t="n">
-        <v>32669.13509114583</v>
+        <v>3621.391682942708</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1605,16 +1605,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.2554052074750264</v>
+        <v>0.6085685789585114</v>
       </c>
       <c r="C72" t="n">
-        <v>31894.82747395833</v>
+        <v>3551.527994791667</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1391177099818985</v>
+        <v>0.1030004089698195</v>
       </c>
       <c r="E72" t="n">
-        <v>31894.71142578125</v>
+        <v>3551.022440592448</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1622,16 +1622,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.2584818253914515</v>
+        <v>0.7563207447528839</v>
       </c>
       <c r="C73" t="n">
-        <v>31137.18619791667</v>
+        <v>3482.6337890625</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1402333819617828</v>
+        <v>0.1081183279554049</v>
       </c>
       <c r="E73" t="n">
-        <v>31137.06770833333</v>
+        <v>3481.985595703125</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1639,16 +1639,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.2705222070217133</v>
+        <v>0.6093851427237192</v>
       </c>
       <c r="C74" t="n">
-        <v>30395.99348958333</v>
+        <v>3414.747477213542</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1425335739428798</v>
+        <v>0.1040257314840953</v>
       </c>
       <c r="E74" t="n">
-        <v>30395.865234375</v>
+        <v>3414.242207845052</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1656,16 +1656,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.2603396425644557</v>
+        <v>0.5032596935828527</v>
       </c>
       <c r="C75" t="n">
-        <v>29670.87565104167</v>
+        <v>3348.181966145833</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1419807389999429</v>
+        <v>0.1202213373035192</v>
       </c>
       <c r="E75" t="n">
-        <v>29670.75699869792</v>
+        <v>3347.798909505208</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1673,16 +1673,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.2618876645962397</v>
+        <v>0.3759650401771069</v>
       </c>
       <c r="C76" t="n">
-        <v>28961.541015625</v>
+        <v>3282.858642578125</v>
       </c>
       <c r="D76" t="n">
-        <v>0.142873437764744</v>
+        <v>0.1213497873395681</v>
       </c>
       <c r="E76" t="n">
-        <v>28961.421875</v>
+        <v>3282.603983561198</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1690,16 +1690,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.2726340591907501</v>
+        <v>0.6457794904708862</v>
       </c>
       <c r="C77" t="n">
-        <v>28267.66731770833</v>
+        <v>3219.166015625</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1443339353427291</v>
+        <v>0.1443986054509878</v>
       </c>
       <c r="E77" t="n">
-        <v>28267.53889973958</v>
+        <v>3218.66465250651</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1707,16 +1707,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.2658764918645223</v>
+        <v>0.4951971669991811</v>
       </c>
       <c r="C78" t="n">
-        <v>27588.908203125</v>
+        <v>3156.269856770833</v>
       </c>
       <c r="D78" t="n">
-        <v>0.144537316635251</v>
+        <v>0.1060449838017424</v>
       </c>
       <c r="E78" t="n">
-        <v>27588.78727213542</v>
+        <v>3155.880716959635</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1724,16 +1724,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.274574339389801</v>
+        <v>0.8927821119626363</v>
       </c>
       <c r="C79" t="n">
-        <v>26924.98763020833</v>
+        <v>3095.11572265625</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1459215131277839</v>
+        <v>0.1007466477652391</v>
       </c>
       <c r="E79" t="n">
-        <v>26924.85888671875</v>
+        <v>3094.323649088542</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1741,16 +1741,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.2707761625448863</v>
+        <v>0.7292963266372681</v>
       </c>
       <c r="C80" t="n">
-        <v>26275.57942708333</v>
+        <v>3034.56982421875</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1470364155247808</v>
+        <v>0.1109579478700956</v>
       </c>
       <c r="E80" t="n">
-        <v>26275.45540364583</v>
+        <v>3033.951497395833</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1758,16 +1758,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.2805815239747365</v>
+        <v>0.9683817923069</v>
       </c>
       <c r="C81" t="n">
-        <v>25640.41145833333</v>
+        <v>2975.572672526042</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1482478476439913</v>
+        <v>0.1252305340021849</v>
       </c>
       <c r="E81" t="n">
-        <v>25640.27913411458</v>
+        <v>2974.729471842448</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1775,16 +1775,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0.2907350659370422</v>
+        <v>0.7445845603942871</v>
       </c>
       <c r="C82" t="n">
-        <v>25019.1796875</v>
+        <v>2917.241129557292</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1498048420374592</v>
+        <v>0.1067856755107641</v>
       </c>
       <c r="E82" t="n">
-        <v>25019.03824869792</v>
+        <v>2916.603352864583</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1792,16 +1792,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0.2933391233285268</v>
+        <v>0.6901489297548929</v>
       </c>
       <c r="C83" t="n">
-        <v>24411.591796875</v>
+        <v>2860.189208984375</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1508187291522821</v>
+        <v>0.1212450874348481</v>
       </c>
       <c r="E83" t="n">
-        <v>24411.44970703125</v>
+        <v>2859.620279947917</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1809,16 +1809,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0.2970958550771077</v>
+        <v>0.4955156842867534</v>
       </c>
       <c r="C84" t="n">
-        <v>23817.37890625</v>
+        <v>2804.09033203125</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1519102184101939</v>
+        <v>0.128108740473787</v>
       </c>
       <c r="E84" t="n">
-        <v>23817.23372395833</v>
+        <v>2803.722839355469</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1826,16 +1826,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0.3072685599327087</v>
+        <v>0.616796463727951</v>
       </c>
       <c r="C85" t="n">
-        <v>23236.2734375</v>
+        <v>2749.374348958333</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1535584786906838</v>
+        <v>0.107117772102356</v>
       </c>
       <c r="E85" t="n">
-        <v>23236.12060546875</v>
+        <v>2748.864705403646</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1843,16 +1843,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.3042498032251994</v>
+        <v>0.7402984201908112</v>
       </c>
       <c r="C86" t="n">
-        <v>22667.986328125</v>
+        <v>2695.707356770833</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1539879596481721</v>
+        <v>0.1175333311160405</v>
       </c>
       <c r="E86" t="n">
-        <v>22667.83528645833</v>
+        <v>2695.084594726562</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1860,16 +1860,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0.3092394272486369</v>
+        <v>0.516094870865345</v>
       </c>
       <c r="C87" t="n">
-        <v>22112.27994791667</v>
+        <v>2642.720703125</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1551493344207605</v>
+        <v>0.1005966334293286</v>
       </c>
       <c r="E87" t="n">
-        <v>22112.1259765625</v>
+        <v>2642.30517578125</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1877,16 +1877,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0.3067471583684285</v>
+        <v>0.4891509612401326</v>
       </c>
       <c r="C88" t="n">
-        <v>21568.875</v>
+        <v>2590.940592447917</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1559840232754747</v>
+        <v>0.1384204104542732</v>
       </c>
       <c r="E88" t="n">
-        <v>21568.72444661458</v>
+        <v>2590.58984375</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1894,16 +1894,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0.3094609181086223</v>
+        <v>0.09182045608758926</v>
       </c>
       <c r="C89" t="n">
-        <v>21037.54166666667</v>
+        <v>2539.784423828125</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1573733352124691</v>
+        <v>0.09703035528461139</v>
       </c>
       <c r="E89" t="n">
-        <v>21037.38981119792</v>
+        <v>2539.789693196615</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1911,16 +1911,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0.3236378828684489</v>
+        <v>0.2062696839372317</v>
       </c>
       <c r="C90" t="n">
-        <v>20518.03841145833</v>
+        <v>2490.111735026042</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1589488172903657</v>
+        <v>0.09226914060612519</v>
       </c>
       <c r="E90" t="n">
-        <v>20517.87386067708</v>
+        <v>2489.997823079427</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1928,16 +1928,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.3222896258036296</v>
+        <v>0.3040615891416867</v>
       </c>
       <c r="C91" t="n">
-        <v>20010.0859375</v>
+        <v>2441.383382161458</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1597886287296812</v>
+        <v>0.1257257678856452</v>
       </c>
       <c r="E91" t="n">
-        <v>20009.92333984375</v>
+        <v>2441.205057779948</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1945,16 +1945,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>0.324956218401591</v>
+        <v>0.3739986071983973</v>
       </c>
       <c r="C92" t="n">
-        <v>19513.48111979167</v>
+        <v>2393.567138671875</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1609605262055993</v>
+        <v>0.1305370113501946</v>
       </c>
       <c r="E92" t="n">
-        <v>19513.31722005208</v>
+        <v>2393.32362874349</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1962,16 +1962,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3351324399312337</v>
+        <v>0.2938407460848491</v>
       </c>
       <c r="C93" t="n">
-        <v>19027.98502604167</v>
+        <v>2346.522786458333</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1625366716956099</v>
+        <v>0.1724920918544134</v>
       </c>
       <c r="E93" t="n">
-        <v>19027.81298828125</v>
+        <v>2346.401509602865</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1979,16 +1979,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3378586073716481</v>
+        <v>0.2204438894987106</v>
       </c>
       <c r="C94" t="n">
-        <v>18553.361328125</v>
+        <v>2300.3896484375</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1636018287390471</v>
+        <v>0.139729796598355</v>
       </c>
       <c r="E94" t="n">
-        <v>18553.18684895833</v>
+        <v>2300.308939615885</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1996,16 +1996,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0.341193566719691</v>
+        <v>0.2102850427230199</v>
       </c>
       <c r="C95" t="n">
-        <v>18089.39453125</v>
+        <v>2255.208821614583</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1647376557812095</v>
+        <v>0.1029463733235995</v>
       </c>
       <c r="E95" t="n">
-        <v>18089.21744791667</v>
+        <v>2255.10146077474</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2013,16 +2013,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3489393293857574</v>
+        <v>0.2564486265182495</v>
       </c>
       <c r="C96" t="n">
-        <v>17635.86848958333</v>
+        <v>2210.960042317708</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1660414583360156</v>
+        <v>0.09659491417308648</v>
       </c>
       <c r="E96" t="n">
-        <v>17635.68570963542</v>
+        <v>2210.800231933594</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2030,16 +2030,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3464476764202118</v>
+        <v>0.5037213762601217</v>
       </c>
       <c r="C97" t="n">
-        <v>17192.55338541667</v>
+        <v>2167.768391927083</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1669621247177323</v>
+        <v>0.1589643315722545</v>
       </c>
       <c r="E97" t="n">
-        <v>17192.3740234375</v>
+        <v>2167.423583984375</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2047,16 +2047,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0.3544936974843343</v>
+        <v>0.3000423113505046</v>
       </c>
       <c r="C98" t="n">
-        <v>16759.25911458333</v>
+        <v>2124.967936197917</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1682510826115807</v>
+        <v>0.1409064767261346</v>
       </c>
       <c r="E98" t="n">
-        <v>16759.072265625</v>
+        <v>2124.808878580729</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2064,16 +2064,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0.3563393155733744</v>
+        <v>0.4305377602577209</v>
       </c>
       <c r="C99" t="n">
-        <v>16335.76529947917</v>
+        <v>2083.326822916667</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1694995990643899</v>
+        <v>0.109209306538105</v>
       </c>
       <c r="E99" t="n">
-        <v>16335.57877604167</v>
+        <v>2083.005432128906</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2081,16 +2081,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0.3640152812004089</v>
+        <v>0.5671367247899374</v>
       </c>
       <c r="C100" t="n">
-        <v>15921.88151041667</v>
+        <v>2042.500366210938</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1708884341642261</v>
+        <v>0.1197180965294441</v>
       </c>
       <c r="E100" t="n">
-        <v>15921.6884765625</v>
+        <v>2042.052958170573</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2098,16 +2098,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>0.3662782311439514</v>
+        <v>0.6108948588371277</v>
       </c>
       <c r="C101" t="n">
-        <v>15517.400390625</v>
+        <v>2002.379679361979</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1719967008878787</v>
+        <v>0.1485109801093737</v>
       </c>
       <c r="E101" t="n">
-        <v>15517.2060546875</v>
+        <v>2001.917307535807</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2115,16 +2115,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>0.370512177546819</v>
+        <v>0.4513405114412308</v>
       </c>
       <c r="C102" t="n">
-        <v>15122.13118489583</v>
+        <v>1962.838460286458</v>
       </c>
       <c r="D102" t="n">
-        <v>0.17309061717242</v>
+        <v>0.0945097307364146</v>
       </c>
       <c r="E102" t="n">
-        <v>15121.93375651042</v>
+        <v>1962.481597900391</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2132,16 +2132,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>0.3769946694374084</v>
+        <v>0.1416827514767647</v>
       </c>
       <c r="C103" t="n">
-        <v>14735.888671875</v>
+        <v>1923.912923177083</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1744311039025585</v>
+        <v>0.13703328743577</v>
       </c>
       <c r="E103" t="n">
-        <v>14735.68611653646</v>
+        <v>1923.908284505208</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2149,16 +2149,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>0.3772484660148621</v>
+        <v>0.1140492434302966</v>
       </c>
       <c r="C104" t="n">
-        <v>14358.47688802083</v>
+        <v>1886.023356119792</v>
       </c>
       <c r="D104" t="n">
-        <v>0.175611328954498</v>
+        <v>0.1649937139203151</v>
       </c>
       <c r="E104" t="n">
-        <v>14358.27522786458</v>
+        <v>1886.074300130208</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2166,16 +2166,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3847660819689433</v>
+        <v>0.09617492308219273</v>
       </c>
       <c r="C105" t="n">
-        <v>13989.72265625</v>
+        <v>1848.882283528646</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1769500573476156</v>
+        <v>0.1166263098518054</v>
       </c>
       <c r="E105" t="n">
-        <v>13989.51497395833</v>
+        <v>1848.902750651042</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2183,16 +2183,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.3894068002700806</v>
+        <v>0.3013939162095388</v>
       </c>
       <c r="C106" t="n">
-        <v>13629.44205729167</v>
+        <v>1812.690673828125</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1781670665368438</v>
+        <v>0.1297111051777999</v>
       </c>
       <c r="E106" t="n">
-        <v>13629.23095703125</v>
+        <v>1812.518981933594</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2200,16 +2200,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>0.3942124048868815</v>
+        <v>0.1434859062234561</v>
       </c>
       <c r="C107" t="n">
-        <v>13277.458984375</v>
+        <v>1776.849650065104</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1794527902578314</v>
+        <v>0.2206212418774764</v>
       </c>
       <c r="E107" t="n">
-        <v>13277.24389648438</v>
+        <v>1776.926818847656</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2217,16 +2217,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>0.3983383278052012</v>
+        <v>0.2072589099407196</v>
       </c>
       <c r="C108" t="n">
-        <v>12933.6015625</v>
+        <v>1741.935668945312</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1807303183401624</v>
+        <v>0.1281654456009468</v>
       </c>
       <c r="E108" t="n">
-        <v>12933.38395182292</v>
+        <v>1741.856557210286</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2234,16 +2234,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4018045763174693</v>
+        <v>0.3019390106201172</v>
       </c>
       <c r="C109" t="n">
-        <v>12597.69986979167</v>
+        <v>1707.735758463542</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1819378457342585</v>
+        <v>0.1507305254538854</v>
       </c>
       <c r="E109" t="n">
-        <v>12597.47981770833</v>
+        <v>1707.584564208984</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2251,16 +2251,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3989163438479106</v>
+        <v>0.4246554970741272</v>
       </c>
       <c r="C110" t="n">
-        <v>12269.58561197917</v>
+        <v>1674.238118489583</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1827043391143282</v>
+        <v>0.1108430841316779</v>
       </c>
       <c r="E110" t="n">
-        <v>12269.369140625</v>
+        <v>1673.924326578776</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2268,16 +2268,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>0.4084466099739075</v>
+        <v>0.5287899772326151</v>
       </c>
       <c r="C111" t="n">
-        <v>11949.11067708333</v>
+        <v>1641.383138020833</v>
       </c>
       <c r="D111" t="n">
-        <v>0.184179309134682</v>
+        <v>0.1064754569282134</v>
       </c>
       <c r="E111" t="n">
-        <v>11948.88631184896</v>
+        <v>1640.96083577474</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2285,16 +2285,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>0.4199425379435222</v>
+        <v>0.2733768920103709</v>
       </c>
       <c r="C112" t="n">
-        <v>11636.10677083333</v>
+        <v>1608.815226236979</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1860842561970154</v>
+        <v>0.1005908337732156</v>
       </c>
       <c r="E112" t="n">
-        <v>11635.87263997396</v>
+        <v>1608.642466227214</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2302,16 +2302,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4202201465765635</v>
+        <v>0.3267837464809418</v>
       </c>
       <c r="C113" t="n">
-        <v>11330.40755208333</v>
+        <v>1577.195109049479</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1870332136750221</v>
+        <v>0.09856870584189892</v>
       </c>
       <c r="E113" t="n">
-        <v>11330.17439778646</v>
+        <v>1576.966857910156</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2319,16 +2319,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4177732666333516</v>
+        <v>0.1297140096624692</v>
       </c>
       <c r="C114" t="n">
-        <v>11031.86588541667</v>
+        <v>1545.950520833333</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1877173663427432</v>
+        <v>0.1673603368302186</v>
       </c>
       <c r="E114" t="n">
-        <v>11031.63582356771</v>
+        <v>1545.988169352214</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2336,16 +2336,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>0.4206427733103434</v>
+        <v>0.2066921641429265</v>
       </c>
       <c r="C115" t="n">
-        <v>10740.34147135417</v>
+        <v>1515.593994140625</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1888188924640417</v>
+        <v>0.1316790239264568</v>
       </c>
       <c r="E115" t="n">
-        <v>10740.10961914062</v>
+        <v>1515.519012451172</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2353,16 +2353,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4287821153799693</v>
+        <v>0.1021010677019755</v>
       </c>
       <c r="C116" t="n">
-        <v>10455.68391927083</v>
+        <v>1485.657999674479</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1902260429536303</v>
+        <v>0.1028412211065491</v>
       </c>
       <c r="E116" t="n">
-        <v>10455.44506835938</v>
+        <v>1485.658752441406</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2370,16 +2370,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4363648891448975</v>
+        <v>0.07562071705857913</v>
       </c>
       <c r="C117" t="n">
-        <v>10177.74381510417</v>
+        <v>1456.392537434896</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1917567433168491</v>
+        <v>0.1227504083265861</v>
       </c>
       <c r="E117" t="n">
-        <v>10177.49934895833</v>
+        <v>1456.439646402995</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2387,16 +2387,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>0.4346157610416412</v>
+        <v>0.2469939192136129</v>
       </c>
       <c r="C118" t="n">
-        <v>9906.375</v>
+        <v>1427.903279622396</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1923565712446968</v>
+        <v>0.1308188686768214</v>
       </c>
       <c r="E118" t="n">
-        <v>9906.1328125</v>
+        <v>1427.787048339844</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2404,16 +2404,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>0.4391699035962423</v>
+        <v>0.1213210051258405</v>
       </c>
       <c r="C119" t="n">
-        <v>9641.449869791666</v>
+        <v>1399.687133789062</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1935749131565293</v>
+        <v>0.1013482455164194</v>
       </c>
       <c r="E119" t="n">
-        <v>9641.204427083334</v>
+        <v>1399.667154947917</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2421,16 +2421,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>0.4408438305060069</v>
+        <v>0.06133336946368217</v>
       </c>
       <c r="C120" t="n">
-        <v>9382.824869791666</v>
+        <v>1372.096638997396</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1946009642754992</v>
+        <v>0.1078798156231642</v>
       </c>
       <c r="E120" t="n">
-        <v>9382.578450520834</v>
+        <v>1372.143157958984</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2438,16 +2438,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>0.4467155834039052</v>
+        <v>0.07978182037671407</v>
       </c>
       <c r="C121" t="n">
-        <v>9130.373697916666</v>
+        <v>1345.131184895833</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1959265843033791</v>
+        <v>0.1470374340812365</v>
       </c>
       <c r="E121" t="n">
-        <v>9130.122639973959</v>
+        <v>1345.198435465495</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2455,16 +2455,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>0.4488972922166188</v>
+        <v>0.1033219123880069</v>
       </c>
       <c r="C122" t="n">
-        <v>8883.957682291666</v>
+        <v>1318.708658854167</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1968725904201468</v>
+        <v>0.1814518670241038</v>
       </c>
       <c r="E122" t="n">
-        <v>8883.70556640625</v>
+        <v>1318.786794026693</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2472,16 +2472,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.4484767019748688</v>
+        <v>0.1379169672727585</v>
       </c>
       <c r="C123" t="n">
-        <v>8643.4482421875</v>
+        <v>1292.829549153646</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1976147753496965</v>
+        <v>0.1395349490145842</v>
       </c>
       <c r="E123" t="n">
-        <v>8643.197591145834</v>
+        <v>1292.831176757812</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2489,16 +2489,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4516622026761373</v>
+        <v>0.1601161112387975</v>
       </c>
       <c r="C124" t="n">
-        <v>8408.726236979166</v>
+        <v>1267.456868489583</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1986138892049591</v>
+        <v>0.1259837318211794</v>
       </c>
       <c r="E124" t="n">
-        <v>8408.473063151041</v>
+        <v>1267.422739664714</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2506,16 +2506,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4572063187758128</v>
+        <v>0.2436890751123428</v>
       </c>
       <c r="C125" t="n">
-        <v>8179.669270833333</v>
+        <v>1242.655436197917</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1998125320921341</v>
+        <v>0.1026286277920008</v>
       </c>
       <c r="E125" t="n">
-        <v>8179.411743164062</v>
+        <v>1242.514383951823</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2523,16 +2523,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4602562387784322</v>
+        <v>0.4649573763211568</v>
       </c>
       <c r="C126" t="n">
-        <v>7956.147298177083</v>
+        <v>1218.489583333333</v>
       </c>
       <c r="D126" t="n">
-        <v>0.2007865821942687</v>
+        <v>0.1078545891990264</v>
       </c>
       <c r="E126" t="n">
-        <v>7955.887817382812</v>
+        <v>1218.132517496745</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2540,16 +2540,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4639703730742137</v>
+        <v>0.3967845340569814</v>
       </c>
       <c r="C127" t="n">
-        <v>7738.04931640625</v>
+        <v>1194.523518880208</v>
       </c>
       <c r="D127" t="n">
-        <v>0.2018302545572321</v>
+        <v>0.1390801376352707</v>
       </c>
       <c r="E127" t="n">
-        <v>7737.787312825521</v>
+        <v>1194.265797932943</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2557,16 +2557,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>0.4672874410947164</v>
+        <v>0.2898788253466288</v>
       </c>
       <c r="C128" t="n">
-        <v>7525.2548828125</v>
+        <v>1170.998901367188</v>
       </c>
       <c r="D128" t="n">
-        <v>0.2029116634900371</v>
+        <v>0.1090714950114489</v>
       </c>
       <c r="E128" t="n">
-        <v>7524.990559895833</v>
+        <v>1170.818064371745</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2574,16 +2574,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>0.4695663054784139</v>
+        <v>0.1812753280003866</v>
       </c>
       <c r="C129" t="n">
-        <v>7317.651204427083</v>
+        <v>1147.943359375</v>
       </c>
       <c r="D129" t="n">
-        <v>0.2037577045460542</v>
+        <v>0.1092366445809603</v>
       </c>
       <c r="E129" t="n">
-        <v>7317.385416666667</v>
+        <v>1147.871337890625</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2591,16 +2591,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4716643492380778</v>
+        <v>0.224051167567571</v>
       </c>
       <c r="C130" t="n">
-        <v>7115.12548828125</v>
+        <v>1125.500651041667</v>
       </c>
       <c r="D130" t="n">
-        <v>0.2045733481645584</v>
+        <v>0.1498657322178284</v>
       </c>
       <c r="E130" t="n">
-        <v>7114.8583984375</v>
+        <v>1125.426472981771</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2608,16 +2608,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4761164287726085</v>
+        <v>0.06840558722615242</v>
       </c>
       <c r="C131" t="n">
-        <v>6917.570475260417</v>
+        <v>1103.313639322917</v>
       </c>
       <c r="D131" t="n">
-        <v>0.2057279649501046</v>
+        <v>0.1244331498940786</v>
       </c>
       <c r="E131" t="n">
-        <v>6917.300008138021</v>
+        <v>1103.369669596354</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2625,16 +2625,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>0.4786863227685292</v>
+        <v>0.03875152518351873</v>
       </c>
       <c r="C132" t="n">
-        <v>6724.876139322917</v>
+        <v>1081.695963541667</v>
       </c>
       <c r="D132" t="n">
-        <v>0.2066526794806123</v>
+        <v>0.1006792889287074</v>
       </c>
       <c r="E132" t="n">
-        <v>6724.604166666667</v>
+        <v>1081.757893880208</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2642,16 +2642,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>0.4786510566870372</v>
+        <v>0.2495048344135284</v>
       </c>
       <c r="C133" t="n">
-        <v>6536.936686197917</v>
+        <v>1060.756225585938</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2071970039978623</v>
+        <v>0.1334655986477931</v>
       </c>
       <c r="E133" t="n">
-        <v>6536.665201822917</v>
+        <v>1060.640207926432</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2659,16 +2659,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4806990722815196</v>
+        <v>0.1794551312923431</v>
       </c>
       <c r="C134" t="n">
-        <v>6353.651041666667</v>
+        <v>1039.96484375</v>
       </c>
       <c r="D134" t="n">
-        <v>0.2080207367738088</v>
+        <v>0.1101361457258463</v>
       </c>
       <c r="E134" t="n">
-        <v>6353.378377278646</v>
+        <v>1039.895548502604</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2676,16 +2676,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4829422732194265</v>
+        <v>0.08097104479869206</v>
       </c>
       <c r="C135" t="n">
-        <v>6174.916015625</v>
+        <v>1019.564860026042</v>
       </c>
       <c r="D135" t="n">
-        <v>0.2087787222117186</v>
+        <v>0.1305086389183998</v>
       </c>
       <c r="E135" t="n">
-        <v>6174.641845703125</v>
+        <v>1019.614405314128</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2693,16 +2693,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>0.4847448368867238</v>
+        <v>0.2103937417268753</v>
       </c>
       <c r="C136" t="n">
-        <v>6000.6337890625</v>
+        <v>999.8049926757812</v>
       </c>
       <c r="D136" t="n">
-        <v>0.2095249161745111</v>
+        <v>0.1838746642072996</v>
       </c>
       <c r="E136" t="n">
-        <v>6000.358479817708</v>
+        <v>999.7784779866537</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2710,16 +2710,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>0.4905248979727427</v>
+        <v>0.1669170210758845</v>
       </c>
       <c r="C137" t="n">
-        <v>5830.709798177083</v>
+        <v>980.2799072265625</v>
       </c>
       <c r="D137" t="n">
-        <v>0.210799782226483</v>
+        <v>0.117966640740633</v>
       </c>
       <c r="E137" t="n">
-        <v>5830.429972330729</v>
+        <v>980.230946858724</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2727,16 +2727,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>0.4909397562344869</v>
+        <v>0.145409402747949</v>
       </c>
       <c r="C138" t="n">
-        <v>5665.040201822917</v>
+        <v>961.1715291341146</v>
       </c>
       <c r="D138" t="n">
-        <v>0.2113965147485336</v>
+        <v>0.1095200435568889</v>
       </c>
       <c r="E138" t="n">
-        <v>5664.7607421875</v>
+        <v>961.1356353759766</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2744,16 +2744,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>0.4928749799728394</v>
+        <v>0.1110936750968297</v>
       </c>
       <c r="C139" t="n">
-        <v>5503.536783854167</v>
+        <v>942.4430541992188</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2121639080966512</v>
+        <v>0.1049776660899321</v>
       </c>
       <c r="E139" t="n">
-        <v>5503.256103515625</v>
+        <v>942.4369506835938</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2761,16 +2761,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>0.4966104924678802</v>
+        <v>0.206918939948082</v>
       </c>
       <c r="C140" t="n">
-        <v>5346.108561197917</v>
+        <v>924.2215576171875</v>
       </c>
       <c r="D140" t="n">
-        <v>0.2131189067537586</v>
+        <v>0.1936032051841418</v>
       </c>
       <c r="E140" t="n">
-        <v>5345.825032552083</v>
+        <v>924.208251953125</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2778,16 +2778,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>0.4977744519710541</v>
+        <v>0.08257352560758591</v>
       </c>
       <c r="C141" t="n">
-        <v>5192.660319010417</v>
+        <v>906.1569620768229</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2137542683631182</v>
+        <v>0.09742983244359493</v>
       </c>
       <c r="E141" t="n">
-        <v>5192.376383463542</v>
+        <v>906.1718292236328</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2795,16 +2795,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>0.4989888866742452</v>
+        <v>0.2536318749189377</v>
       </c>
       <c r="C142" t="n">
-        <v>5043.1083984375</v>
+        <v>888.7548624674479</v>
       </c>
       <c r="D142" t="n">
-        <v>0.2143201263000568</v>
+        <v>0.1005159616470337</v>
       </c>
       <c r="E142" t="n">
-        <v>5042.823689778646</v>
+        <v>888.6017354329427</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2812,16 +2812,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>0.5002071658770243</v>
+        <v>0.3196273495753606</v>
       </c>
       <c r="C143" t="n">
-        <v>4897.363932291667</v>
+        <v>871.6066691080729</v>
       </c>
       <c r="D143" t="n">
-        <v>0.214988438722988</v>
+        <v>0.1042596458767851</v>
       </c>
       <c r="E143" t="n">
-        <v>4897.078776041667</v>
+        <v>871.3913116455078</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2829,16 +2829,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>0.5054134329160055</v>
+        <v>0.3155675828456879</v>
       </c>
       <c r="C144" t="n">
-        <v>4755.347330729167</v>
+        <v>854.7410278320312</v>
       </c>
       <c r="D144" t="n">
-        <v>0.2161303479224443</v>
+        <v>0.1046901239703099</v>
       </c>
       <c r="E144" t="n">
-        <v>4755.057902018229</v>
+        <v>854.5301615397135</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2846,16 +2846,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>0.5072918931643168</v>
+        <v>0.2039169544974963</v>
       </c>
       <c r="C145" t="n">
-        <v>4616.967610677083</v>
+        <v>838.1133829752604</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2168358955532312</v>
+        <v>0.1573437315722307</v>
       </c>
       <c r="E145" t="n">
-        <v>4616.67724609375</v>
+        <v>838.0668334960938</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2863,16 +2863,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>0.5079677899678549</v>
+        <v>0.1550213545560837</v>
       </c>
       <c r="C146" t="n">
-        <v>4482.145833333333</v>
+        <v>821.8870035807291</v>
       </c>
       <c r="D146" t="n">
-        <v>0.217374692671001</v>
+        <v>0.1124322259177764</v>
       </c>
       <c r="E146" t="n">
-        <v>4481.855102539062</v>
+        <v>821.8444213867188</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2880,16 +2880,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>0.5089630683263143</v>
+        <v>0.07125736276308696</v>
       </c>
       <c r="C147" t="n">
-        <v>4350.802083333333</v>
+        <v>805.9604085286459</v>
       </c>
       <c r="D147" t="n">
-        <v>0.2178834204872449</v>
+        <v>0.1456079613417387</v>
       </c>
       <c r="E147" t="n">
-        <v>4350.510864257812</v>
+        <v>806.0347646077474</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2897,16 +2897,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>0.5100408395131429</v>
+        <v>0.09627271443605423</v>
       </c>
       <c r="C148" t="n">
-        <v>4222.860188802083</v>
+        <v>790.4679768880209</v>
       </c>
       <c r="D148" t="n">
-        <v>0.2184813724209865</v>
+        <v>0.1229626815766096</v>
       </c>
       <c r="E148" t="n">
-        <v>4222.568603515625</v>
+        <v>790.4946645100912</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2914,16 +2914,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>0.5107467174530029</v>
+        <v>0.2179164340098699</v>
       </c>
       <c r="C149" t="n">
-        <v>4098.240559895833</v>
+        <v>775.3895670572916</v>
       </c>
       <c r="D149" t="n">
-        <v>0.218977063583831</v>
+        <v>0.1075830198824406</v>
       </c>
       <c r="E149" t="n">
-        <v>4097.948933919271</v>
+        <v>775.2792256673177</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2931,16 +2931,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>0.5163429379463196</v>
+        <v>0.05371973291039467</v>
       </c>
       <c r="C150" t="n">
-        <v>3976.873942057292</v>
+        <v>760.339111328125</v>
       </c>
       <c r="D150" t="n">
-        <v>0.2201614764829477</v>
+        <v>0.1504716239869595</v>
       </c>
       <c r="E150" t="n">
-        <v>3976.577840169271</v>
+        <v>760.4358723958334</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2948,16 +2948,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>0.5200298428535461</v>
+        <v>0.1407576302687327</v>
       </c>
       <c r="C151" t="n">
-        <v>3858.6796875</v>
+        <v>745.8484090169271</v>
       </c>
       <c r="D151" t="n">
-        <v>0.2211851592486103</v>
+        <v>0.1178664869318406</v>
       </c>
       <c r="E151" t="n">
-        <v>3858.380839029948</v>
+        <v>745.8255055745443</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2965,16 +2965,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>0.5176681081453959</v>
+        <v>0.2632541457811992</v>
       </c>
       <c r="C152" t="n">
-        <v>3743.582600911458</v>
+        <v>731.6929931640625</v>
       </c>
       <c r="D152" t="n">
-        <v>0.2211521730447809</v>
+        <v>0.1089404529581467</v>
       </c>
       <c r="E152" t="n">
-        <v>3743.286112467448</v>
+        <v>731.5386912027994</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2982,16 +2982,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>0.521344264348348</v>
+        <v>0.3057502806186676</v>
       </c>
       <c r="C153" t="n">
-        <v>3631.521891276042</v>
+        <v>717.7535603841146</v>
       </c>
       <c r="D153" t="n">
-        <v>0.222023886628449</v>
+        <v>0.1062716959665219</v>
       </c>
       <c r="E153" t="n">
-        <v>3631.222493489583</v>
+        <v>717.5540873209635</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2999,16 +2999,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>0.5244369506835938</v>
+        <v>0.2380915482838949</v>
       </c>
       <c r="C154" t="n">
-        <v>3522.421630859375</v>
+        <v>703.9933471679688</v>
       </c>
       <c r="D154" t="n">
-        <v>0.2229183635984858</v>
+        <v>0.1067511973281701</v>
       </c>
       <c r="E154" t="n">
-        <v>3522.1201171875</v>
+        <v>703.8619995117188</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3016,16 +3016,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>0.5263859828313192</v>
+        <v>0.04592646782596906</v>
       </c>
       <c r="C155" t="n">
-        <v>3416.21484375</v>
+        <v>690.3922322591146</v>
       </c>
       <c r="D155" t="n">
-        <v>0.2235899275789658</v>
+        <v>0.130599170923233</v>
       </c>
       <c r="E155" t="n">
-        <v>3415.912068684896</v>
+        <v>690.4769134521484</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3033,16 +3033,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>0.5278388063112894</v>
+        <v>0.09308748319745064</v>
       </c>
       <c r="C156" t="n">
-        <v>3312.83349609375</v>
+        <v>677.3092041015625</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2241085013374686</v>
+        <v>0.1860953656335672</v>
       </c>
       <c r="E156" t="n">
-        <v>3312.52978515625</v>
+        <v>677.4022216796875</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3050,16 +3050,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>0.5277685721715292</v>
+        <v>0.260859618584315</v>
       </c>
       <c r="C157" t="n">
-        <v>3212.212565104167</v>
+        <v>664.6226806640625</v>
       </c>
       <c r="D157" t="n">
-        <v>0.2243693266063929</v>
+        <v>0.1946355712910493</v>
       </c>
       <c r="E157" t="n">
-        <v>3211.909138997396</v>
+        <v>664.5564575195312</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3067,16 +3067,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>0.5286035140355428</v>
+        <v>0.05998058803379536</v>
       </c>
       <c r="C158" t="n">
-        <v>3114.289794921875</v>
+        <v>651.8337809244791</v>
       </c>
       <c r="D158" t="n">
-        <v>0.2247480445851882</v>
+        <v>0.1475192873428265</v>
       </c>
       <c r="E158" t="n">
-        <v>3113.98594156901</v>
+        <v>651.9213205973307</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3084,16 +3084,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>0.5291564265886942</v>
+        <v>0.1213639155030251</v>
       </c>
       <c r="C159" t="n">
-        <v>3019.001057942708</v>
+        <v>639.5687052408854</v>
       </c>
       <c r="D159" t="n">
-        <v>0.2251837945853671</v>
+        <v>0.1186898273105423</v>
       </c>
       <c r="E159" t="n">
-        <v>3018.697123209635</v>
+        <v>639.5660196940104</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3101,16 +3101,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>0.5303579171498617</v>
+        <v>0.0687879944841067</v>
       </c>
       <c r="C160" t="n">
-        <v>2926.285970052083</v>
+        <v>627.4453328450521</v>
       </c>
       <c r="D160" t="n">
-        <v>0.2255700152988235</v>
+        <v>0.1217956077307463</v>
       </c>
       <c r="E160" t="n">
-        <v>2925.981221516927</v>
+        <v>627.4983164469401</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3118,16 +3118,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>0.5327045122782389</v>
+        <v>0.1304526155193647</v>
       </c>
       <c r="C161" t="n">
-        <v>2836.083984375</v>
+        <v>615.6873982747396</v>
       </c>
       <c r="D161" t="n">
-        <v>0.2262505820641915</v>
+        <v>0.1194754261523485</v>
       </c>
       <c r="E161" t="n">
-        <v>2835.777486165365</v>
+        <v>615.6764170328776</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3135,16 +3135,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>0.5359249114990234</v>
+        <v>0.1404387826720873</v>
       </c>
       <c r="C162" t="n">
-        <v>2748.336669921875</v>
+        <v>604.12451171875</v>
       </c>
       <c r="D162" t="n">
-        <v>0.2270934547608097</v>
+        <v>0.3053357154130936</v>
       </c>
       <c r="E162" t="n">
-        <v>2748.027893066406</v>
+        <v>604.2894083658854</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3152,16 +3152,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>0.5377660393714905</v>
+        <v>0.05898877729972204</v>
       </c>
       <c r="C163" t="n">
-        <v>2662.982828776042</v>
+        <v>592.7149251302084</v>
       </c>
       <c r="D163" t="n">
-        <v>0.2277351381878058</v>
+        <v>0.1400736657281717</v>
       </c>
       <c r="E163" t="n">
-        <v>2662.672790527344</v>
+        <v>592.7960306803385</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3169,16 +3169,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>0.5397952596346537</v>
+        <v>0.0597031886378924</v>
       </c>
       <c r="C164" t="n">
-        <v>2579.968994140625</v>
+        <v>581.6241048177084</v>
       </c>
       <c r="D164" t="n">
-        <v>0.2283286498859525</v>
+        <v>0.1212743589033683</v>
       </c>
       <c r="E164" t="n">
-        <v>2579.657552083333</v>
+        <v>581.6856689453125</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3186,16 +3186,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>0.5407926837603251</v>
+        <v>0.05565328399340311</v>
       </c>
       <c r="C165" t="n">
-        <v>2499.237060546875</v>
+        <v>570.7598673502604</v>
       </c>
       <c r="D165" t="n">
-        <v>0.2287015641729037</v>
+        <v>0.1588504500687122</v>
       </c>
       <c r="E165" t="n">
-        <v>2498.924987792969</v>
+        <v>570.8630727132162</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3203,16 +3203,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>0.5413291652997335</v>
+        <v>0.110877533753713</v>
       </c>
       <c r="C166" t="n">
-        <v>2420.733723958333</v>
+        <v>560.1828409830729</v>
       </c>
       <c r="D166" t="n">
-        <v>0.229075579593579</v>
+        <v>0.1296416074037552</v>
       </c>
       <c r="E166" t="n">
-        <v>2420.421427408854</v>
+        <v>560.2015991210938</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3220,16 +3220,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>0.5407158732414246</v>
+        <v>0.03170570110281309</v>
       </c>
       <c r="C167" t="n">
-        <v>2344.405680338542</v>
+        <v>549.6930338541666</v>
       </c>
       <c r="D167" t="n">
-        <v>0.2291105147451162</v>
+        <v>0.1218201437344154</v>
       </c>
       <c r="E167" t="n">
-        <v>2344.094116210938</v>
+        <v>549.7831319173177</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3237,16 +3237,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>0.5418825546900431</v>
+        <v>0.09507720172405243</v>
       </c>
       <c r="C168" t="n">
-        <v>2270.201578776042</v>
+        <v>539.5640665690104</v>
       </c>
       <c r="D168" t="n">
-        <v>0.2295244646569093</v>
+        <v>0.1166900862008333</v>
       </c>
       <c r="E168" t="n">
-        <v>2269.889200846354</v>
+        <v>539.585683186849</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3254,16 +3254,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>0.5430382291475931</v>
+        <v>0.04121112947662672</v>
       </c>
       <c r="C169" t="n">
-        <v>2198.070149739583</v>
+        <v>529.5322875976562</v>
       </c>
       <c r="D169" t="n">
-        <v>0.2299148576955</v>
+        <v>0.1528634813924631</v>
       </c>
       <c r="E169" t="n">
-        <v>2197.756978352865</v>
+        <v>529.6439514160156</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3271,16 +3271,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>0.5460453629493713</v>
+        <v>0.06039612429837386</v>
       </c>
       <c r="C170" t="n">
-        <v>2127.961507161458</v>
+        <v>519.7826131184896</v>
       </c>
       <c r="D170" t="n">
-        <v>0.2306686496982972</v>
+        <v>0.1230622430642446</v>
       </c>
       <c r="E170" t="n">
-        <v>2127.646199544271</v>
+        <v>519.8452860514323</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3288,16 +3288,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>0.5507038235664368</v>
+        <v>0.08639739702145259</v>
       </c>
       <c r="C171" t="n">
-        <v>2059.827718098958</v>
+        <v>510.2443542480469</v>
       </c>
       <c r="D171" t="n">
-        <v>0.2318454726288716</v>
+        <v>0.1599555183202028</v>
       </c>
       <c r="E171" t="n">
-        <v>2059.508931477865</v>
+        <v>510.3179117838542</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3305,16 +3305,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>0.5500371853510538</v>
+        <v>0.1683896432320277</v>
       </c>
       <c r="C172" t="n">
-        <v>1993.614624023438</v>
+        <v>500.9639587402344</v>
       </c>
       <c r="D172" t="n">
-        <v>0.23191155338039</v>
+        <v>0.117717740436395</v>
       </c>
       <c r="E172" t="n">
-        <v>1993.296498616536</v>
+        <v>500.9132792154948</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3322,16 +3322,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>0.5498051047325134</v>
+        <v>0.1181862205266953</v>
       </c>
       <c r="C173" t="n">
-        <v>1929.280110677083</v>
+        <v>491.7479146321614</v>
       </c>
       <c r="D173" t="n">
-        <v>0.2319252168138822</v>
+        <v>0.1075090312709411</v>
       </c>
       <c r="E173" t="n">
-        <v>1928.962259928385</v>
+        <v>491.7372360229492</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3339,16 +3339,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>0.5498759945233663</v>
+        <v>0.04412658512592316</v>
       </c>
       <c r="C174" t="n">
-        <v>1866.777303059896</v>
+        <v>482.7000630696614</v>
       </c>
       <c r="D174" t="n">
-        <v>0.2321163586651286</v>
+        <v>0.1183026613046726</v>
       </c>
       <c r="E174" t="n">
-        <v>1866.459513346354</v>
+        <v>482.7742436726888</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3356,16 +3356,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>0.5513516068458557</v>
+        <v>0.05763920644919077</v>
       </c>
       <c r="C175" t="n">
-        <v>1806.062581380208</v>
+        <v>473.9283650716146</v>
       </c>
       <c r="D175" t="n">
-        <v>0.232532840843002</v>
+        <v>0.1070577533294757</v>
       </c>
       <c r="E175" t="n">
-        <v>1805.743764241536</v>
+        <v>473.9777857462565</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3373,16 +3373,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>0.5536297162373861</v>
+        <v>0.1209911977251371</v>
       </c>
       <c r="C176" t="n">
-        <v>1747.091064453125</v>
+        <v>465.3901163736979</v>
       </c>
       <c r="D176" t="n">
-        <v>0.2331830905750394</v>
+        <v>0.1306640300899744</v>
       </c>
       <c r="E176" t="n">
-        <v>1746.770660400391</v>
+        <v>465.3997980753581</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3390,16 +3390,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>0.5540241599082947</v>
+        <v>0.1629993865887324</v>
       </c>
       <c r="C177" t="n">
-        <v>1689.817423502604</v>
+        <v>457.011962890625</v>
       </c>
       <c r="D177" t="n">
-        <v>0.2334008539716403</v>
+        <v>0.1182407923042774</v>
       </c>
       <c r="E177" t="n">
-        <v>1689.496836344401</v>
+        <v>456.9672139485677</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3407,16 +3407,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>0.5561516284942627</v>
+        <v>0.07708562538027763</v>
       </c>
       <c r="C178" t="n">
-        <v>1634.202270507812</v>
+        <v>448.6826273600261</v>
       </c>
       <c r="D178" t="n">
-        <v>0.2339795843387643</v>
+        <v>0.1224772452066342</v>
       </c>
       <c r="E178" t="n">
-        <v>1633.880086263021</v>
+        <v>448.7280069986979</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3424,16 +3424,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>0.5566880305608114</v>
+        <v>0.02846852627893289</v>
       </c>
       <c r="C179" t="n">
-        <v>1580.201334635417</v>
+        <v>440.5640258789062</v>
       </c>
       <c r="D179" t="n">
-        <v>0.2342678687224785</v>
+        <v>0.1122781485319138</v>
       </c>
       <c r="E179" t="n">
-        <v>1579.878916422526</v>
+        <v>440.647829691569</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3441,16 +3441,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>0.5583437085151672</v>
+        <v>0.09011659274498622</v>
       </c>
       <c r="C180" t="n">
-        <v>1527.776733398438</v>
+        <v>432.7253621419271</v>
       </c>
       <c r="D180" t="n">
-        <v>0.2347481213510036</v>
+        <v>0.1389278182759881</v>
       </c>
       <c r="E180" t="n">
-        <v>1527.453125</v>
+        <v>432.7741775512695</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3458,16 +3458,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>0.5592362284660339</v>
+        <v>0.161026472846667</v>
       </c>
       <c r="C181" t="n">
-        <v>1476.886759440104</v>
+        <v>425.0619710286458</v>
       </c>
       <c r="D181" t="n">
-        <v>0.2350495476275682</v>
+        <v>0.1810455620288849</v>
       </c>
       <c r="E181" t="n">
-        <v>1476.562561035156</v>
+        <v>425.0819880167643</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3475,16 +3475,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>0.5596752564112345</v>
+        <v>0.04248372092843056</v>
       </c>
       <c r="C182" t="n">
-        <v>1427.493041992188</v>
+        <v>417.3751220703125</v>
       </c>
       <c r="D182" t="n">
-        <v>0.235271854326129</v>
+        <v>0.1298917873452107</v>
       </c>
       <c r="E182" t="n">
-        <v>1427.168609619141</v>
+        <v>417.462532043457</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3492,16 +3492,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>0.5620453357696533</v>
+        <v>0.2831620077292125</v>
       </c>
       <c r="C183" t="n">
-        <v>1379.559488932292</v>
+        <v>410.2065327962239</v>
       </c>
       <c r="D183" t="n">
-        <v>0.2359250864634911</v>
+        <v>0.2047246421376864</v>
       </c>
       <c r="E183" t="n">
-        <v>1379.233357747396</v>
+        <v>410.1281000773112</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3509,16 +3509,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>0.5625861088434855</v>
+        <v>0.07148172333836555</v>
       </c>
       <c r="C184" t="n">
-        <v>1333.045735677083</v>
+        <v>402.7428995768229</v>
       </c>
       <c r="D184" t="n">
-        <v>0.2361728586256504</v>
+        <v>0.1172618338217338</v>
       </c>
       <c r="E184" t="n">
-        <v>1332.719319661458</v>
+        <v>402.7886810302734</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3526,16 +3526,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>0.5626915494600931</v>
+        <v>0.1070931230982145</v>
       </c>
       <c r="C185" t="n">
-        <v>1287.916341145833</v>
+        <v>395.6789652506511</v>
       </c>
       <c r="D185" t="n">
-        <v>0.2362513262778521</v>
+        <v>0.1079820832237601</v>
       </c>
       <c r="E185" t="n">
-        <v>1287.589884440104</v>
+        <v>395.6798502604167</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3543,16 +3543,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>0.5607643922170004</v>
+        <v>0.08761930962403615</v>
       </c>
       <c r="C186" t="n">
-        <v>1244.135091145833</v>
+        <v>388.7093200683594</v>
       </c>
       <c r="D186" t="n">
-        <v>0.235864513553679</v>
+        <v>0.1089271021385988</v>
       </c>
       <c r="E186" t="n">
-        <v>1243.810201009115</v>
+        <v>388.7306315104167</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3560,16 +3560,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>0.5629629294077555</v>
+        <v>0.3374631603558858</v>
       </c>
       <c r="C187" t="n">
-        <v>1201.671590169271</v>
+        <v>382.1552937825521</v>
       </c>
       <c r="D187" t="n">
-        <v>0.2364665577188134</v>
+        <v>0.2007811032235622</v>
       </c>
       <c r="E187" t="n">
-        <v>1201.345102945964</v>
+        <v>382.0186208089193</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3577,16 +3577,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>0.5651204188664755</v>
+        <v>0.1253611842791239</v>
       </c>
       <c r="C188" t="n">
-        <v>1160.488810221354</v>
+        <v>375.2849019368489</v>
       </c>
       <c r="D188" t="n">
-        <v>0.2370330020785332</v>
+        <v>0.151603601872921</v>
       </c>
       <c r="E188" t="n">
-        <v>1160.160756429036</v>
+        <v>375.311144510905</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3594,16 +3594,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>0.5667330821355184</v>
+        <v>0.08957382291555405</v>
       </c>
       <c r="C189" t="n">
-        <v>1120.552449544271</v>
+        <v>368.7311503092448</v>
       </c>
       <c r="D189" t="n">
-        <v>0.2375832519804438</v>
+        <v>0.110052440315485</v>
       </c>
       <c r="E189" t="n">
-        <v>1120.223307291667</v>
+        <v>368.7516225179036</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3611,16 +3611,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>0.5668846964836121</v>
+        <v>0.1925761451323827</v>
       </c>
       <c r="C190" t="n">
-        <v>1081.829549153646</v>
+        <v>362.4515482584636</v>
       </c>
       <c r="D190" t="n">
-        <v>0.2376563909153143</v>
+        <v>0.1372328121215105</v>
       </c>
       <c r="E190" t="n">
-        <v>1081.500356038411</v>
+        <v>362.3962071736653</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3628,16 +3628,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>0.568651537100474</v>
+        <v>0.2344322204589844</v>
       </c>
       <c r="C191" t="n">
-        <v>1044.290730794271</v>
+        <v>356.2468872070312</v>
       </c>
       <c r="D191" t="n">
-        <v>0.238189079798758</v>
+        <v>0.2302617356181145</v>
       </c>
       <c r="E191" t="n">
-        <v>1043.960235595703</v>
+        <v>356.2427113850911</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3645,16 +3645,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>0.570311963558197</v>
+        <v>0.3022417624791463</v>
       </c>
       <c r="C192" t="n">
-        <v>1007.903137207031</v>
+        <v>350.2021077473958</v>
       </c>
       <c r="D192" t="n">
-        <v>0.2386661215374867</v>
+        <v>0.1343562876184781</v>
       </c>
       <c r="E192" t="n">
-        <v>1007.571482340495</v>
+        <v>350.0342280069987</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3662,16 +3662,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>0.5706972678502401</v>
+        <v>0.07733281329274178</v>
       </c>
       <c r="C193" t="n">
-        <v>972.6356404622396</v>
+        <v>343.9938049316406</v>
       </c>
       <c r="D193" t="n">
-        <v>0.2388774923359354</v>
+        <v>0.1863700170069933</v>
       </c>
       <c r="E193" t="n">
-        <v>972.3038126627604</v>
+        <v>344.1028416951497</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3679,16 +3679,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>0.5691016713778178</v>
+        <v>0.2249183356761932</v>
       </c>
       <c r="C194" t="n">
-        <v>938.4579060872396</v>
+        <v>338.2827250162761</v>
       </c>
       <c r="D194" t="n">
-        <v>0.2385126849015554</v>
+        <v>0.1799086034297943</v>
       </c>
       <c r="E194" t="n">
-        <v>938.1273142496744</v>
+        <v>338.2377141316732</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3696,16 +3696,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>0.5691142479578654</v>
+        <v>0.2050305902957916</v>
       </c>
       <c r="C195" t="n">
-        <v>905.3435262044271</v>
+        <v>332.5265604654948</v>
       </c>
       <c r="D195" t="n">
-        <v>0.2385781208674113</v>
+        <v>0.1798054166138172</v>
       </c>
       <c r="E195" t="n">
-        <v>905.0129954020182</v>
+        <v>332.5013376871745</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3713,16 +3713,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>0.5702075958251953</v>
+        <v>0.1191386009256045</v>
       </c>
       <c r="C196" t="n">
-        <v>873.2633870442709</v>
+        <v>326.8256022135417</v>
       </c>
       <c r="D196" t="n">
-        <v>0.2388623760392269</v>
+        <v>0.1249864865094423</v>
       </c>
       <c r="E196" t="n">
-        <v>872.9320373535156</v>
+        <v>326.8314361572266</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3730,16 +3730,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>0.5700644652048746</v>
+        <v>0.03677453597386678</v>
       </c>
       <c r="C197" t="n">
-        <v>842.1882934570312</v>
+        <v>321.2468465169271</v>
       </c>
       <c r="D197" t="n">
-        <v>0.2389164393146833</v>
+        <v>0.1045840904116631</v>
       </c>
       <c r="E197" t="n">
-        <v>841.8571421305338</v>
+        <v>321.3146692911784</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3747,16 +3747,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>0.5699527064959208</v>
+        <v>0.1416017760833105</v>
       </c>
       <c r="C198" t="n">
-        <v>812.0916951497396</v>
+        <v>315.9703063964844</v>
       </c>
       <c r="D198" t="n">
-        <v>0.2389360576247176</v>
+        <v>0.1224261832733949</v>
       </c>
       <c r="E198" t="n">
-        <v>811.7606658935547</v>
+        <v>315.9511337280273</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3764,16 +3764,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>0.5691221952438354</v>
+        <v>0.07935116812586784</v>
       </c>
       <c r="C199" t="n">
-        <v>782.9464518229166</v>
+        <v>310.6396179199219</v>
       </c>
       <c r="D199" t="n">
-        <v>0.23875716359665</v>
+        <v>0.1343771501754721</v>
       </c>
       <c r="E199" t="n">
-        <v>782.6160786946615</v>
+        <v>310.6946487426758</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3781,16 +3781,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>0.5710331797599792</v>
+        <v>0.07457493245601654</v>
       </c>
       <c r="C200" t="n">
-        <v>754.729248046875</v>
+        <v>305.4774983723958</v>
       </c>
       <c r="D200" t="n">
-        <v>0.2391971504936616</v>
+        <v>0.1278765648603439</v>
       </c>
       <c r="E200" t="n">
-        <v>754.3974049886068</v>
+        <v>305.5307973225911</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3798,16 +3798,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>0.5705852309862772</v>
+        <v>0.03156594590594371</v>
       </c>
       <c r="C201" t="n">
-        <v>727.4108479817709</v>
+        <v>300.3849589029948</v>
       </c>
       <c r="D201" t="n">
-        <v>0.2391916289925575</v>
+        <v>0.108243003487587</v>
       </c>
       <c r="E201" t="n">
-        <v>727.0794576009115</v>
+        <v>300.4616394042969</v>
       </c>
     </row>
   </sheetData>
@@ -3842,7 +3842,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4047833383083344</v>
+        <v>1.307234168052673</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3850,7 +3850,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4463034272193909</v>
+        <v>0.7316204309463501</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3858,7 +3858,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4619912803173065</v>
+        <v>1.253966212272644</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3866,7 +3866,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4344832599163055</v>
+        <v>0.7780872583389282</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3874,7 +3874,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4057140946388245</v>
+        <v>1.196891665458679</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3882,7 +3882,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4190311431884766</v>
+        <v>1.139195203781128</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3890,7 +3890,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4442011117935181</v>
+        <v>0.8648678064346313</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3898,7 +3898,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4768190383911133</v>
+        <v>1.05932891368866</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4507824778556824</v>
+        <v>1.158679723739624</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4126355946063995</v>
+        <v>0.8343949913978577</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3922,7 +3922,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4619561731815338</v>
+        <v>0.7473217844963074</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3930,7 +3930,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4124954044818878</v>
+        <v>1.060940980911255</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4583358466625214</v>
+        <v>1.049714326858521</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3946,7 +3946,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4108644723892212</v>
+        <v>0.8255200982093811</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3954,7 +3954,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4584775865077972</v>
+        <v>0.9841684699058533</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3962,7 +3962,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4367546439170837</v>
+        <v>0.9088572859764099</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3970,7 +3970,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B18" t="n">
-        <v>0.399710088968277</v>
+        <v>0.8961957693099976</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3978,7 +3978,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4267030656337738</v>
+        <v>0.7834683656692505</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3986,7 +3986,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3845036029815674</v>
+        <v>1.10161566734314</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3994,7 +3994,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4309545457363129</v>
+        <v>1.139354348182678</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4002,7 +4002,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4360154569149017</v>
+        <v>1.119248747825623</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4010,7 +4010,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4426240026950836</v>
+        <v>0.8107954859733582</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4018,7 +4018,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3973093330860138</v>
+        <v>0.9067960977554321</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4026,7 +4026,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B25" t="n">
-        <v>0.400114119052887</v>
+        <v>0.9788749217987061</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4034,7 +4034,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4490948617458344</v>
+        <v>1.052298188209534</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4042,7 +4042,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4690097868442535</v>
+        <v>1.070960879325867</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4050,7 +4050,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4234329760074615</v>
+        <v>0.7752665877342224</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4058,7 +4058,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4631857573986053</v>
+        <v>0.7423203587532043</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4066,7 +4066,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4164032340049744</v>
+        <v>1.216068387031555</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4074,7 +4074,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4477098882198334</v>
+        <v>1.16221010684967</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4082,7 +4082,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4344402253627777</v>
+        <v>1.184981465339661</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4090,7 +4090,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4347281754016876</v>
+        <v>0.9975923299789429</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4098,7 +4098,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4275709092617035</v>
+        <v>1.084928393363953</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4106,7 +4106,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B35" t="n">
-        <v>0.3876049220561981</v>
+        <v>0.8407395482063293</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4114,7 +4114,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4657744169235229</v>
+        <v>0.7506497502326965</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4122,7 +4122,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4408482909202576</v>
+        <v>1.017309546470642</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4130,7 +4130,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4132794737815857</v>
+        <v>1.304531693458557</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4138,7 +4138,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4432370662689209</v>
+        <v>1.070324420928955</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4146,7 +4146,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4016603231430054</v>
+        <v>1.115719437599182</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4154,7 +4154,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4560250341892242</v>
+        <v>1.019697546958923</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4162,7 +4162,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4582442343235016</v>
+        <v>0.9351677298545837</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4170,7 +4170,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3800328969955444</v>
+        <v>0.9847080707550049</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4178,7 +4178,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4872799217700958</v>
+        <v>1.204727172851562</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4186,7 +4186,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4579610228538513</v>
+        <v>0.7631630897521973</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4194,7 +4194,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5004564523696899</v>
+        <v>0.9092569351196289</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4202,7 +4202,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4447818696498871</v>
+        <v>0.8521578907966614</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4210,7 +4210,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4113990068435669</v>
+        <v>0.9176750779151917</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4218,7 +4218,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4235316216945648</v>
+        <v>0.9871841073036194</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4226,7 +4226,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4600722789764404</v>
+        <v>0.7267552018165588</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4234,7 +4234,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4727295637130737</v>
+        <v>0.9830301403999329</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4242,7 +4242,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4585897028446198</v>
+        <v>1.241468191146851</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4250,7 +4250,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4364102184772491</v>
+        <v>1.011430740356445</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4258,7 +4258,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4436056017875671</v>
+        <v>0.967750072479248</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4266,7 +4266,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4575278460979462</v>
+        <v>0.9343399405479431</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4274,7 +4274,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4878288209438324</v>
+        <v>0.9855454564094543</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4282,7 +4282,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4347665309906006</v>
+        <v>0.9889766573905945</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4290,7 +4290,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4244040548801422</v>
+        <v>0.7962756156921387</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4298,7 +4298,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4617944955825806</v>
+        <v>0.8058527112007141</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4306,7 +4306,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B60" t="n">
-        <v>0.3952447772026062</v>
+        <v>0.9575760960578918</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4314,7 +4314,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B61" t="n">
-        <v>0.424210786819458</v>
+        <v>1.113264918327332</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4322,7 +4322,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4159058630466461</v>
+        <v>1.28514575958252</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4330,7 +4330,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3543990254402161</v>
+        <v>0.8555057048797607</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4338,7 +4338,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4441290497779846</v>
+        <v>0.6493158936500549</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4346,7 +4346,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4591315686702728</v>
+        <v>0.7700819969177246</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4354,7 +4354,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4234655797481537</v>
+        <v>1.215454936027527</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4362,7 +4362,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4386394917964935</v>
+        <v>0.6408306956291199</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4370,7 +4370,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3949735164642334</v>
+        <v>0.8486632108688354</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4378,7 +4378,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4303648173809052</v>
+        <v>0.8859224915504456</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4386,7 +4386,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B70" t="n">
-        <v>0.460676908493042</v>
+        <v>1.139904618263245</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4394,7 +4394,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B71" t="n">
-        <v>0.400268942117691</v>
+        <v>0.9113323092460632</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4402,7 +4402,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4408922791481018</v>
+        <v>1.090038776397705</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4410,7 +4410,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4624449014663696</v>
+        <v>1.006887435913086</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4418,7 +4418,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4324906170368195</v>
+        <v>0.9789571166038513</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4426,7 +4426,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4539832770824432</v>
+        <v>1.127527117729187</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4434,7 +4434,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4292682409286499</v>
+        <v>1.085217356681824</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4442,7 +4442,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4167703688144684</v>
+        <v>0.9100627303123474</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4450,7 +4450,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B78" t="n">
-        <v>0.3920449912548065</v>
+        <v>0.8813844323158264</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4458,7 +4458,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4157167971134186</v>
+        <v>0.993975043296814</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4466,7 +4466,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4420987069606781</v>
+        <v>1.107985377311707</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -4474,7 +4474,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B81" t="n">
-        <v>0.398139625787735</v>
+        <v>0.9291489720344543</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4482,7 +4482,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3965925574302673</v>
+        <v>0.9475542306900024</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4490,7 +4490,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3999680578708649</v>
+        <v>1.1910640001297</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4498,7 +4498,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4488291144371033</v>
+        <v>0.9012614488601685</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4506,7 +4506,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4135665595531464</v>
+        <v>1.112593770027161</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4514,7 +4514,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4038821160793304</v>
+        <v>1.205180168151855</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -4522,7 +4522,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4041400849819183</v>
+        <v>1.031671285629272</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4530,7 +4530,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B88" t="n">
-        <v>0.3813459277153015</v>
+        <v>1.249614000320435</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -4538,7 +4538,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4378980994224548</v>
+        <v>0.9827660322189331</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4546,7 +4546,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4896283149719238</v>
+        <v>1.060971140861511</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -4554,7 +4554,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B91" t="n">
-        <v>0.416915088891983</v>
+        <v>1.108973383903503</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4562,7 +4562,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B92" t="n">
-        <v>0.3775914013385773</v>
+        <v>0.4942114055156708</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -4570,7 +4570,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B93" t="n">
-        <v>0.400496631860733</v>
+        <v>0.8798526525497437</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -4578,7 +4578,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B94" t="n">
-        <v>0.4432416558265686</v>
+        <v>0.8314552307128906</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4586,7 +4586,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4231278598308563</v>
+        <v>1.039393901824951</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -4594,7 +4594,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3916646540164948</v>
+        <v>1.193421006202698</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -4602,7 +4602,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3908548057079315</v>
+        <v>0.5623448491096497</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -4610,7 +4610,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B98" t="n">
-        <v>0.472343921661377</v>
+        <v>1.135271549224854</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4618,7 +4618,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4344894289970398</v>
+        <v>0.8979658484458923</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4626,7 +4626,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5002296566963196</v>
+        <v>0.8657546639442444</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4634,7 +4634,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B101" t="n">
-        <v>0.4415210783481598</v>
+        <v>0.921746551990509</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -4642,7 +4642,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4233530163764954</v>
+        <v>0.6911779046058655</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -4650,7 +4650,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4240470826625824</v>
+        <v>0.8865330815315247</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4658,7 +4658,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B104" t="n">
-        <v>0.38277268409729</v>
+        <v>0.8455710411071777</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4666,7 +4666,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4777175784111023</v>
+        <v>1.081747055053711</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B106" t="n">
-        <v>0.3937865197658539</v>
+        <v>0.7988332509994507</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B107" t="n">
-        <v>0.486890971660614</v>
+        <v>1.073609709739685</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B108" t="n">
-        <v>0.3886658549308777</v>
+        <v>1.091440558433533</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4248596429824829</v>
+        <v>0.9641422033309937</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B110" t="n">
-        <v>0.4314920902252197</v>
+        <v>0.4318617880344391</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B111" t="n">
-        <v>0.4561306536197662</v>
+        <v>0.7438244223594666</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B112" t="n">
-        <v>0.4929874539375305</v>
+        <v>0.8798816204071045</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4354208409786224</v>
+        <v>0.7913764119148254</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -4738,7 +4738,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4682118594646454</v>
+        <v>0.6753565669059753</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4746,7 +4746,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B115" t="n">
-        <v>0.38425612449646</v>
+        <v>0.913324773311615</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4754,7 +4754,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4017464220523834</v>
+        <v>0.7612940073013306</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -4762,7 +4762,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4398344755172729</v>
+        <v>0.845858097076416</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -4770,7 +4770,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B118" t="n">
-        <v>0.4220276474952698</v>
+        <v>0.8725807070732117</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -4778,7 +4778,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B119" t="n">
-        <v>0.4521858096122742</v>
+        <v>1.083315134048462</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4786,7 +4786,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B120" t="n">
-        <v>0.4382445514202118</v>
+        <v>1.115244030952454</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4794,7 +4794,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B121" t="n">
-        <v>0.4283709824085236</v>
+        <v>0.8766637444496155</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4802,7 +4802,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3988941609859467</v>
+        <v>0.6686644554138184</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4810,7 +4810,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B123" t="n">
-        <v>0.4822559952735901</v>
+        <v>0.8740097880363464</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4818,7 +4818,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4061688780784607</v>
+        <v>1.061196565628052</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4826,7 +4826,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4275985658168793</v>
+        <v>0.6454625129699707</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -4834,7 +4834,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4470613300800323</v>
+        <v>1.266897916793823</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4842,7 +4842,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4139136373996735</v>
+        <v>1.080913305282593</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -4850,7 +4850,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3973031938076019</v>
+        <v>0.8924353122711182</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -4858,7 +4858,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B129" t="n">
-        <v>0.4896184206008911</v>
+        <v>0.57459557056427</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4866,7 +4866,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B130" t="n">
-        <v>0.441887378692627</v>
+        <v>0.8684637546539307</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4874,7 +4874,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3684103786945343</v>
+        <v>1.300094962120056</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4882,7 +4882,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B132" t="n">
-        <v>0.4137241244316101</v>
+        <v>1.177337408065796</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4890,7 +4890,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B133" t="n">
-        <v>0.4197856187820435</v>
+        <v>0.7567511200904846</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4898,7 +4898,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4188241064548492</v>
+        <v>1.527538537979126</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -4906,7 +4906,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4288019239902496</v>
+        <v>1.043269753456116</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4914,7 +4914,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B136" t="n">
-        <v>0.390808641910553</v>
+        <v>0.9693472981452942</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -4922,7 +4922,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B137" t="n">
-        <v>0.4280900359153748</v>
+        <v>0.9483002424240112</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -4930,7 +4930,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B138" t="n">
-        <v>0.3962032496929169</v>
+        <v>1.065128207206726</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4938,7 +4938,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B139" t="n">
-        <v>0.4281433522701263</v>
+        <v>1.00750720500946</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -4946,7 +4946,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B140" t="n">
-        <v>0.4489286839962006</v>
+        <v>1.24906063079834</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4954,7 +4954,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B141" t="n">
-        <v>0.3886412084102631</v>
+        <v>0.9389751553535461</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4962,7 +4962,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B142" t="n">
-        <v>0.4732089936733246</v>
+        <v>1.205454230308533</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4970,7 +4970,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B143" t="n">
-        <v>0.460005134344101</v>
+        <v>1.090412497520447</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4978,7 +4978,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B144" t="n">
-        <v>0.4061237871646881</v>
+        <v>0.4832706153392792</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4986,7 +4986,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B145" t="n">
-        <v>0.4526622593402863</v>
+        <v>0.8582852482795715</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4994,7 +4994,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B146" t="n">
-        <v>0.4387434720993042</v>
+        <v>0.8227492570877075</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -5002,7 +5002,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B147" t="n">
-        <v>0.4412963688373566</v>
+        <v>1.032708883285522</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -5010,7 +5010,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B148" t="n">
-        <v>0.4324896037578583</v>
+        <v>1.037899613380432</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -5018,7 +5018,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B149" t="n">
-        <v>0.41037717461586</v>
+        <v>0.9068951010704041</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -5026,7 +5026,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B150" t="n">
-        <v>0.4320580661296844</v>
+        <v>0.9646919965744019</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -5034,7 +5034,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B151" t="n">
-        <v>0.4529712200164795</v>
+        <v>0.7063092589378357</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -5042,7 +5042,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B152" t="n">
-        <v>0.3931096494197845</v>
+        <v>0.7319728136062622</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -5050,7 +5050,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B153" t="n">
-        <v>0.5100410580635071</v>
+        <v>0.7718386650085449</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -5058,7 +5058,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B154" t="n">
-        <v>0.4017884433269501</v>
+        <v>0.865999162197113</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -5066,7 +5066,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B155" t="n">
-        <v>0.4261071681976318</v>
+        <v>1.224475502967834</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -5074,7 +5074,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B156" t="n">
-        <v>0.3664744794368744</v>
+        <v>0.9594556093215942</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -5082,7 +5082,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B157" t="n">
-        <v>0.4537214636802673</v>
+        <v>0.9836199283599854</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -5090,7 +5090,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B158" t="n">
-        <v>0.3924697935581207</v>
+        <v>0.9743414521217346</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -5098,7 +5098,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B159" t="n">
-        <v>0.4345982074737549</v>
+        <v>1.166131019592285</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -5106,7 +5106,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B160" t="n">
-        <v>0.4504108726978302</v>
+        <v>1.071929693222046</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -5114,7 +5114,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B161" t="n">
-        <v>0.3876506090164185</v>
+        <v>1.126567244529724</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -5122,7 +5122,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B162" t="n">
-        <v>0.4175455868244171</v>
+        <v>1.390830755233765</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -5130,7 +5130,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B163" t="n">
-        <v>0.4323132336139679</v>
+        <v>0.9896483421325684</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -5138,7 +5138,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B164" t="n">
-        <v>0.3866258859634399</v>
+        <v>1.04336404800415</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -5146,7 +5146,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B165" t="n">
-        <v>0.4293143749237061</v>
+        <v>0.7829767465591431</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5154,7 +5154,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B166" t="n">
-        <v>0.4266277253627777</v>
+        <v>0.6539134383201599</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -5162,7 +5162,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B167" t="n">
-        <v>0.4432707130908966</v>
+        <v>0.9084702134132385</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -5170,7 +5170,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B168" t="n">
-        <v>0.4250327348709106</v>
+        <v>1.196986436843872</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -5178,7 +5178,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B169" t="n">
-        <v>0.4138767123222351</v>
+        <v>1.089855194091797</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -5186,7 +5186,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B170" t="n">
-        <v>0.4126307666301727</v>
+        <v>0.9912106394767761</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -5194,7 +5194,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B171" t="n">
-        <v>0.4364261627197266</v>
+        <v>1.006351828575134</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -5202,7 +5202,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B172" t="n">
-        <v>0.4475168585777283</v>
+        <v>0.8761311769485474</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -5210,7 +5210,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B173" t="n">
-        <v>0.4318889677524567</v>
+        <v>0.8159218430519104</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -5218,7 +5218,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B174" t="n">
-        <v>0.4451697170734406</v>
+        <v>1.119865655899048</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -5226,7 +5226,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B175" t="n">
-        <v>0.4010768234729767</v>
+        <v>1.0788414478302</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -5234,7 +5234,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B176" t="n">
-        <v>0.4450471997261047</v>
+        <v>1.217877626419067</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -5242,7 +5242,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B177" t="n">
-        <v>0.4322844743728638</v>
+        <v>1.045519113540649</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -5250,7 +5250,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B178" t="n">
-        <v>0.4674563705921173</v>
+        <v>1.040332555770874</v>
       </c>
     </row>
   </sheetData>

--- a/result/chenting_20151124_noon_2.mat4.xlsx
+++ b/result/chenting_20151124_noon_2.mat4.xlsx
@@ -415,16 +415,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>51.01577377319336</v>
+        <v>8.906569798787435</v>
       </c>
       <c r="C2" t="n">
-        <v>13720.69954427083</v>
+        <v>3230.963460286458</v>
       </c>
       <c r="D2" t="n">
-        <v>43.86274274190267</v>
+        <v>10.83698391914368</v>
       </c>
       <c r="E2" t="n">
-        <v>13713.54630533854</v>
+        <v>3232.893839518229</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -432,16 +432,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>58.80305735270182</v>
+        <v>7.685691356658936</v>
       </c>
       <c r="C3" t="n">
-        <v>13473.59212239583</v>
+        <v>3172.758219401042</v>
       </c>
       <c r="D3" t="n">
-        <v>53.57217661539713</v>
+        <v>3.164485921462377</v>
       </c>
       <c r="E3" t="n">
-        <v>13468.361328125</v>
+        <v>3168.236979166667</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -449,16 +449,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.36835789680481</v>
+        <v>7.832140922546387</v>
       </c>
       <c r="C4" t="n">
-        <v>13166.794921875</v>
+        <v>3116.704915364583</v>
       </c>
       <c r="D4" t="n">
-        <v>4.801939845085144</v>
+        <v>9.659208218256632</v>
       </c>
       <c r="E4" t="n">
-        <v>13168.22867838542</v>
+        <v>3118.532002766927</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -466,16 +466,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.06023724873861</v>
+        <v>1.138860106468201</v>
       </c>
       <c r="C5" t="n">
-        <v>12927.84440104167</v>
+        <v>3054.709635416667</v>
       </c>
       <c r="D5" t="n">
-        <v>14.38813519477844</v>
+        <v>0.7542659242947897</v>
       </c>
       <c r="E5" t="n">
-        <v>12930.17244466146</v>
+        <v>3054.325073242188</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -483,16 +483,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.29931131998698</v>
+        <v>7.886313756306966</v>
       </c>
       <c r="C6" t="n">
-        <v>12690.51529947917</v>
+        <v>3007.095784505208</v>
       </c>
       <c r="D6" t="n">
-        <v>23.58955939610799</v>
+        <v>5.93451718489329</v>
       </c>
       <c r="E6" t="n">
-        <v>12695.80541992188</v>
+        <v>3005.143961588542</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -500,16 +500,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.960308392842611</v>
+        <v>1.166727840900421</v>
       </c>
       <c r="C7" t="n">
-        <v>12442.21614583333</v>
+        <v>2947.052083333333</v>
       </c>
       <c r="D7" t="n">
-        <v>16.5642081896464</v>
+        <v>1.792819639046987</v>
       </c>
       <c r="E7" t="n">
-        <v>12449.82006835938</v>
+        <v>2947.678059895833</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -517,16 +517,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1.709815382957458</v>
+        <v>1.327113767464956</v>
       </c>
       <c r="C8" t="n">
-        <v>12200.57291666667</v>
+        <v>2895.001383463542</v>
       </c>
       <c r="D8" t="n">
-        <v>7.644514163335164</v>
+        <v>0.7826227446397146</v>
       </c>
       <c r="E8" t="n">
-        <v>12206.50789388021</v>
+        <v>2894.45692952474</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -534,16 +534,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7.855048974355062</v>
+        <v>6.231604258219401</v>
       </c>
       <c r="C9" t="n">
-        <v>11976.73470052083</v>
+        <v>2848.667399088542</v>
       </c>
       <c r="D9" t="n">
-        <v>2.236035774151484</v>
+        <v>4.03599613904953</v>
       </c>
       <c r="E9" t="n">
-        <v>11971.11580403646</v>
+        <v>2846.47178141276</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -551,16 +551,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>5.715113480885823</v>
+        <v>3.552604118982951</v>
       </c>
       <c r="C10" t="n">
-        <v>11748.82063802083</v>
+        <v>2795.862874348958</v>
       </c>
       <c r="D10" t="n">
-        <v>1.690609668691953</v>
+        <v>2.223305344581604</v>
       </c>
       <c r="E10" t="n">
-        <v>11744.79606119792</v>
+        <v>2794.533630371094</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -568,16 +568,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.017913659413656</v>
+        <v>3.46172571182251</v>
       </c>
       <c r="C11" t="n">
-        <v>11529.53157552083</v>
+        <v>2746.591145833333</v>
       </c>
       <c r="D11" t="n">
-        <v>4.404617786407471</v>
+        <v>2.221326013406118</v>
       </c>
       <c r="E11" t="n">
-        <v>11525.91837565104</v>
+        <v>2745.350748697917</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -585,16 +585,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>6.705564498901367</v>
+        <v>9.050352096557617</v>
       </c>
       <c r="C12" t="n">
-        <v>11310.75813802083</v>
+        <v>2703.900472005208</v>
       </c>
       <c r="D12" t="n">
-        <v>4.504600783189137</v>
+        <v>7.344532330830892</v>
       </c>
       <c r="E12" t="n">
-        <v>11308.55737304688</v>
+        <v>2702.194600423177</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -602,16 +602,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>5.876090526580811</v>
+        <v>2.231412649154663</v>
       </c>
       <c r="C13" t="n">
-        <v>11096.59375</v>
+        <v>2649.804931640625</v>
       </c>
       <c r="D13" t="n">
-        <v>5.051489114761353</v>
+        <v>2.603479206562042</v>
       </c>
       <c r="E13" t="n">
-        <v>11095.76912434896</v>
+        <v>2650.176961263021</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -619,16 +619,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>5.004795392354329</v>
+        <v>3.793136199315389</v>
       </c>
       <c r="C14" t="n">
-        <v>10886.447265625</v>
+        <v>2604.949625651042</v>
       </c>
       <c r="D14" t="n">
-        <v>3.853531440099081</v>
+        <v>4.280126372973124</v>
       </c>
       <c r="E14" t="n">
-        <v>10885.2958984375</v>
+        <v>2605.436604817708</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -636,16 +636,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>3.725552002588908</v>
+        <v>0.7961594263712565</v>
       </c>
       <c r="C15" t="n">
-        <v>10679.8876953125</v>
+        <v>2556.393636067708</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9250812729199728</v>
+        <v>1.002991025646528</v>
       </c>
       <c r="E15" t="n">
-        <v>10677.08723958333</v>
+        <v>2556.600382486979</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -653,16 +653,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.763252834479014</v>
+        <v>2.049083828926086</v>
       </c>
       <c r="C16" t="n">
-        <v>10475.47135416667</v>
+        <v>2512.917236328125</v>
       </c>
       <c r="D16" t="n">
-        <v>2.247619152069092</v>
+        <v>1.486616333325704</v>
       </c>
       <c r="E16" t="n">
-        <v>10476.95572916667</v>
+        <v>2512.354777018229</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -670,16 +670,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9699670076370239</v>
+        <v>1.296506643295288</v>
       </c>
       <c r="C17" t="n">
-        <v>10278.01432291667</v>
+        <v>2468.244059244792</v>
       </c>
       <c r="D17" t="n">
-        <v>1.787448058525721</v>
+        <v>0.7319873323043188</v>
       </c>
       <c r="E17" t="n">
-        <v>10278.83146158854</v>
+        <v>2467.679524739583</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -687,16 +687,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>2.942220290501913</v>
+        <v>1.789463837941488</v>
       </c>
       <c r="C18" t="n">
-        <v>10086.04850260417</v>
+        <v>2425.606608072917</v>
       </c>
       <c r="D18" t="n">
-        <v>1.782967468102773</v>
+        <v>1.755293667316437</v>
       </c>
       <c r="E18" t="n">
-        <v>10084.88948567708</v>
+        <v>2425.572428385417</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -704,16 +704,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1.180589586496353</v>
+        <v>2.849077860514323</v>
       </c>
       <c r="C19" t="n">
-        <v>9893.966145833334</v>
+        <v>2384.330973307292</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9232011338075002</v>
+        <v>2.30698827902476</v>
       </c>
       <c r="E19" t="n">
-        <v>9893.708414713541</v>
+        <v>2383.788920084635</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -721,16 +721,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1.743856211503347</v>
+        <v>1.239021182060242</v>
       </c>
       <c r="C20" t="n">
-        <v>9707.750651041666</v>
+        <v>2341.1787109375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2819064495464166</v>
+        <v>0.4852350689470768</v>
       </c>
       <c r="E20" t="n">
-        <v>9706.28857421875</v>
+        <v>2340.424926757812</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -738,16 +738,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1.75163197517395</v>
+        <v>0.1701994786659876</v>
       </c>
       <c r="C21" t="n">
-        <v>9524.456705729166</v>
+        <v>2299.318359375</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2806348490218322</v>
+        <v>0.4879506627718608</v>
       </c>
       <c r="E21" t="n">
-        <v>9522.985677083334</v>
+        <v>2299.636108398438</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -755,16 +755,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1.983064532279968</v>
+        <v>0.6264897783597311</v>
       </c>
       <c r="C22" t="n">
-        <v>9344.7626953125</v>
+        <v>2259.715576171875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5838311264912287</v>
+        <v>0.2518577526013057</v>
       </c>
       <c r="E22" t="n">
-        <v>9343.363037109375</v>
+        <v>2259.340983072917</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -772,16 +772,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9933564563592275</v>
+        <v>0.819177488485972</v>
       </c>
       <c r="C23" t="n">
-        <v>9167.174153645834</v>
+        <v>2220.562418619792</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2585413033763568</v>
+        <v>0.4269211168090503</v>
       </c>
       <c r="E23" t="n">
-        <v>9166.439208984375</v>
+        <v>2220.170084635417</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -789,16 +789,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9228947858015696</v>
+        <v>0.1689491470654806</v>
       </c>
       <c r="C24" t="n">
-        <v>8993.7568359375</v>
+        <v>2181.2861328125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2406976210574309</v>
+        <v>0.6954388668139776</v>
       </c>
       <c r="E24" t="n">
-        <v>8993.07470703125</v>
+        <v>2181.812622070312</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,16 +806,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6655511210362116</v>
+        <v>0.6437229414780935</v>
       </c>
       <c r="C25" t="n">
-        <v>8823.339192708334</v>
+        <v>2143.841064453125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1203124100963275</v>
+        <v>1.301987797021866</v>
       </c>
       <c r="E25" t="n">
-        <v>8822.794189453125</v>
+        <v>2144.499267578125</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -823,16 +823,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7466519872347513</v>
+        <v>0.184965709845225</v>
       </c>
       <c r="C26" t="n">
-        <v>8656.389322916666</v>
+        <v>2106.152669270833</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1290697560956081</v>
+        <v>0.3985483944416046</v>
       </c>
       <c r="E26" t="n">
-        <v>8655.771647135416</v>
+        <v>2106.366333007812</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -840,16 +840,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8581570982933044</v>
+        <v>1.371892809867859</v>
       </c>
       <c r="C27" t="n">
-        <v>8492.536783854166</v>
+        <v>2070.7705078125</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1132377541313569</v>
+        <v>0.6098284423351288</v>
       </c>
       <c r="E27" t="n">
-        <v>8491.7919921875</v>
+        <v>2070.008524576823</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -857,16 +857,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8263906935850779</v>
+        <v>0.6897459824879965</v>
       </c>
       <c r="C28" t="n">
-        <v>8331.5634765625</v>
+        <v>2034.166544596354</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1125700796643893</v>
+        <v>0.1781231972078482</v>
       </c>
       <c r="E28" t="n">
-        <v>8330.849934895834</v>
+        <v>2033.654927571615</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -874,16 +874,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6381799727678299</v>
+        <v>0.487374871969223</v>
       </c>
       <c r="C29" t="n">
-        <v>8173.3994140625</v>
+        <v>1998.688557942708</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1356492110838493</v>
+        <v>0.3526547774672508</v>
       </c>
       <c r="E29" t="n">
-        <v>8172.896931966146</v>
+        <v>1998.553802490234</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -891,16 +891,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8743430177370707</v>
+        <v>1.136059065659841</v>
       </c>
       <c r="C30" t="n">
-        <v>8018.568359375</v>
+        <v>1964.68798828125</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09536736148099105</v>
+        <v>0.2421499478320281</v>
       </c>
       <c r="E30" t="n">
-        <v>8017.789225260417</v>
+        <v>1963.794016520182</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -908,16 +908,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6038879056771597</v>
+        <v>0.311817283431689</v>
       </c>
       <c r="C31" t="n">
-        <v>7866.087727864583</v>
+        <v>1929.8203125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1017373570551475</v>
+        <v>0.2092207707464695</v>
       </c>
       <c r="E31" t="n">
-        <v>7865.585693359375</v>
+        <v>1929.717742919922</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -925,16 +925,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5943203022082647</v>
+        <v>0.6325240631898245</v>
       </c>
       <c r="C32" t="n">
-        <v>7716.676920572917</v>
+        <v>1896.693806966146</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1061515050629775</v>
+        <v>0.3089450771609942</v>
       </c>
       <c r="E32" t="n">
-        <v>7716.188680013021</v>
+        <v>1896.370229085286</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -942,16 +942,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4227071007092794</v>
+        <v>0.5931524435679117</v>
       </c>
       <c r="C33" t="n">
-        <v>7569.869954427083</v>
+        <v>1863.79638671875</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1209476223836343</v>
+        <v>0.1565590724349022</v>
       </c>
       <c r="E33" t="n">
-        <v>7569.568155924479</v>
+        <v>1863.359802246094</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -959,16 +959,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4676602383454641</v>
+        <v>0.9160909056663513</v>
       </c>
       <c r="C34" t="n">
-        <v>7425.982259114583</v>
+        <v>1831.835245768229</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1059938807350894</v>
+        <v>0.2015946631630262</v>
       </c>
       <c r="E34" t="n">
-        <v>7425.620686848958</v>
+        <v>1831.120778401693</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -976,16 +976,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4759705364704132</v>
+        <v>0.7761556108792623</v>
       </c>
       <c r="C35" t="n">
-        <v>7284.722981770833</v>
+        <v>1799.972086588542</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1204841615011295</v>
+        <v>0.1208366776506106</v>
       </c>
       <c r="E35" t="n">
-        <v>7284.367553710938</v>
+        <v>1799.316762288411</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -993,16 +993,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5068280796209971</v>
+        <v>0.3353379219770432</v>
       </c>
       <c r="C36" t="n">
-        <v>7146.09716796875</v>
+        <v>1768.360107421875</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1241388584797581</v>
+        <v>0.147461390743653</v>
       </c>
       <c r="E36" t="n">
-        <v>7145.714518229167</v>
+        <v>1768.172241210938</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1010,16 +1010,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.48841659228007</v>
+        <v>0.786767840385437</v>
       </c>
       <c r="C37" t="n">
-        <v>7009.986979166667</v>
+        <v>1738.18359375</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1040373200861116</v>
+        <v>0.170528603096803</v>
       </c>
       <c r="E37" t="n">
-        <v>7009.6025390625</v>
+        <v>1737.5673828125</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1027,16 +1027,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4402308563391368</v>
+        <v>0.7603110671043396</v>
       </c>
       <c r="C38" t="n">
-        <v>6876.362141927083</v>
+        <v>1708.066853841146</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1092675036440293</v>
+        <v>0.1329648743073145</v>
       </c>
       <c r="E38" t="n">
-        <v>6876.031127929688</v>
+        <v>1707.439473470052</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1044,16 +1044,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4323327392339706</v>
+        <v>0.5224789579709371</v>
       </c>
       <c r="C39" t="n">
-        <v>6745.250813802083</v>
+        <v>1678.263671875</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1460133697837591</v>
+        <v>0.1087186116104325</v>
       </c>
       <c r="E39" t="n">
-        <v>6744.964314778646</v>
+        <v>1677.849934895833</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1061,16 +1061,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3243422408898671</v>
+        <v>0.219472348690033</v>
       </c>
       <c r="C40" t="n">
-        <v>6616.473307291667</v>
+        <v>1648.91162109375</v>
       </c>
       <c r="D40" t="n">
-        <v>0.09768431447446346</v>
+        <v>0.1144142219175895</v>
       </c>
       <c r="E40" t="n">
-        <v>6616.246663411458</v>
+        <v>1648.806549072266</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1078,16 +1078,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2388557096322378</v>
+        <v>0.1890304187933604</v>
       </c>
       <c r="C41" t="n">
-        <v>6490.1064453125</v>
+        <v>1620.340169270833</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1048594874640306</v>
+        <v>0.1343490947037935</v>
       </c>
       <c r="E41" t="n">
-        <v>6489.972574869792</v>
+        <v>1620.285481770833</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1095,16 +1095,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.3390041490395864</v>
+        <v>0.2905382961034775</v>
       </c>
       <c r="C42" t="n">
-        <v>6366.26123046875</v>
+        <v>1592.396891276042</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08924976146469514</v>
+        <v>0.1174993875126044</v>
       </c>
       <c r="E42" t="n">
-        <v>6366.011596679688</v>
+        <v>1592.223805745443</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1112,16 +1112,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1908643394708633</v>
+        <v>0.51861905058225</v>
       </c>
       <c r="C43" t="n">
-        <v>6244.464192708333</v>
+        <v>1565.066569010417</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1193036461869876</v>
+        <v>0.09795732920368512</v>
       </c>
       <c r="E43" t="n">
-        <v>6244.392781575521</v>
+        <v>1564.64594523112</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1129,16 +1129,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.2779543002446492</v>
+        <v>0.422470639149348</v>
       </c>
       <c r="C44" t="n">
-        <v>6125.163248697917</v>
+        <v>1537.893432617188</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1052211162944635</v>
+        <v>0.116671954592069</v>
       </c>
       <c r="E44" t="n">
-        <v>6124.990478515625</v>
+        <v>1537.587605794271</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1146,16 +1146,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3271940400203069</v>
+        <v>0.4941493173440297</v>
       </c>
       <c r="C45" t="n">
-        <v>6008.04052734375</v>
+        <v>1511.359985351562</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1502939288814863</v>
+        <v>0.0885862127567331</v>
       </c>
       <c r="E45" t="n">
-        <v>6007.863606770833</v>
+        <v>1510.954427083333</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1163,16 +1163,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.3818606734275818</v>
+        <v>0.3146898547808329</v>
       </c>
       <c r="C46" t="n">
-        <v>5893.1025390625</v>
+        <v>1485.039672851562</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1046974460283915</v>
+        <v>0.1155497152358294</v>
       </c>
       <c r="E46" t="n">
-        <v>5892.825398763021</v>
+        <v>1484.840535481771</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1180,16 +1180,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4216556549072266</v>
+        <v>0.1654559150338173</v>
       </c>
       <c r="C47" t="n">
-        <v>5780.277669270833</v>
+        <v>1459.204264322917</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1111509470889966</v>
+        <v>0.1180249700943629</v>
       </c>
       <c r="E47" t="n">
-        <v>5779.967122395833</v>
+        <v>1459.156850179036</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1197,16 +1197,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6442858477433523</v>
+        <v>0.1947058215737343</v>
       </c>
       <c r="C48" t="n">
-        <v>5669.735026041667</v>
+        <v>1433.994303385417</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1154687150071065</v>
+        <v>0.09063845438261826</v>
       </c>
       <c r="E48" t="n">
-        <v>5669.206258138021</v>
+        <v>1433.890207926432</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1214,16 +1214,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7647920846939087</v>
+        <v>0.3381269524494807</v>
       </c>
       <c r="C49" t="n">
-        <v>5561.147135416667</v>
+        <v>1409.339477539062</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0937274657189846</v>
+        <v>0.1002328420678775</v>
       </c>
       <c r="E49" t="n">
-        <v>5560.476033528646</v>
+        <v>1409.101572672526</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1231,16 +1231,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6407024761041006</v>
+        <v>0.2186049744486809</v>
       </c>
       <c r="C50" t="n">
-        <v>5454.33984375</v>
+        <v>1384.853881835938</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1293280112246672</v>
+        <v>0.08777771952251594</v>
       </c>
       <c r="E50" t="n">
-        <v>5453.828491210938</v>
+        <v>1384.72304280599</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1248,16 +1248,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8643445173899332</v>
+        <v>0.1981702496608098</v>
       </c>
       <c r="C51" t="n">
-        <v>5349.869791666667</v>
+        <v>1360.892618815104</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1095425821840763</v>
+        <v>0.08752810396254063</v>
       </c>
       <c r="E51" t="n">
-        <v>5349.114868164062</v>
+        <v>1360.781982421875</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1265,16 +1265,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.913738821943601</v>
+        <v>0.1768375734488169</v>
       </c>
       <c r="C52" t="n">
-        <v>5247.173014322917</v>
+        <v>1337.348673502604</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1067720794429382</v>
+        <v>0.08354050448785226</v>
       </c>
       <c r="E52" t="n">
-        <v>5246.366088867188</v>
+        <v>1337.25542195638</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1282,16 +1282,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7957791636387507</v>
+        <v>0.3693477263053258</v>
       </c>
       <c r="C53" t="n">
-        <v>5146.22607421875</v>
+        <v>1314.429158528646</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1007095708822211</v>
+        <v>0.09647006293137868</v>
       </c>
       <c r="E53" t="n">
-        <v>5145.530843098958</v>
+        <v>1314.15630086263</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1299,16 +1299,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>1.236983398596446</v>
+        <v>0.1372127284606298</v>
       </c>
       <c r="C54" t="n">
-        <v>5047.715169270833</v>
+        <v>1291.487548828125</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1952789276838303</v>
+        <v>0.09168979401389758</v>
       </c>
       <c r="E54" t="n">
-        <v>5046.673258463542</v>
+        <v>1291.442026774089</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1316,16 +1316,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9456649820009867</v>
+        <v>0.1391118143995603</v>
       </c>
       <c r="C55" t="n">
-        <v>4950.319661458333</v>
+        <v>1269.177083333333</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1298769606898228</v>
+        <v>0.1140500195324421</v>
       </c>
       <c r="E55" t="n">
-        <v>4949.503865559896</v>
+        <v>1269.152028401693</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1333,16 +1333,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>1.190682013829549</v>
+        <v>0.4174279669920604</v>
       </c>
       <c r="C56" t="n">
-        <v>4855.273600260417</v>
+        <v>1247.532063802083</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1157913679877917</v>
+        <v>0.08972745109349489</v>
       </c>
       <c r="E56" t="n">
-        <v>4854.198852539062</v>
+        <v>1247.204345703125</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1350,16 +1350,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9253578384717306</v>
+        <v>0.3697211593389511</v>
       </c>
       <c r="C57" t="n">
-        <v>4761.498209635417</v>
+        <v>1225.94384765625</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1060302425175905</v>
+        <v>0.08619772953291734</v>
       </c>
       <c r="E57" t="n">
-        <v>4760.678751627604</v>
+        <v>1225.660288492839</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1367,16 +1367,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>1.100186049938202</v>
+        <v>0.3580447137355804</v>
       </c>
       <c r="C58" t="n">
-        <v>4669.923828125</v>
+        <v>1204.76953125</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1055099355677764</v>
+        <v>0.08264074629793565</v>
       </c>
       <c r="E58" t="n">
-        <v>4668.929280598958</v>
+        <v>1204.494140625</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1384,16 +1384,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7975573937098185</v>
+        <v>0.2499195684989294</v>
       </c>
       <c r="C59" t="n">
-        <v>4579.579264322917</v>
+        <v>1183.867268880208</v>
       </c>
       <c r="D59" t="n">
-        <v>0.09436759104331334</v>
+        <v>0.1212951087703307</v>
       </c>
       <c r="E59" t="n">
-        <v>4578.876139322917</v>
+        <v>1183.738596598307</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1401,16 +1401,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5533922662337621</v>
+        <v>0.3692668626705806</v>
       </c>
       <c r="C60" t="n">
-        <v>4490.972330729167</v>
+        <v>1163.559244791667</v>
       </c>
       <c r="D60" t="n">
-        <v>0.11561853873233</v>
+        <v>0.08777488737056653</v>
       </c>
       <c r="E60" t="n">
-        <v>4490.534586588542</v>
+        <v>1163.277699788411</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1418,16 +1418,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7753309110800425</v>
+        <v>0.3405923893054326</v>
       </c>
       <c r="C61" t="n">
-        <v>4404.484375</v>
+        <v>1143.459635416667</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1243499107658863</v>
+        <v>0.09074219595640898</v>
       </c>
       <c r="E61" t="n">
-        <v>4403.833333333333</v>
+        <v>1143.209757486979</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1435,16 +1435,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4702625473340352</v>
+        <v>0.3001399387915929</v>
       </c>
       <c r="C62" t="n">
-        <v>4319.095703125</v>
+        <v>1123.701497395833</v>
       </c>
       <c r="D62" t="n">
-        <v>0.100902130206426</v>
+        <v>0.09128462833662827</v>
       </c>
       <c r="E62" t="n">
-        <v>4318.726399739583</v>
+        <v>1123.492665608724</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1452,16 +1452,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.66415074467659</v>
+        <v>0.3316428661346436</v>
       </c>
       <c r="C63" t="n">
-        <v>4235.8017578125</v>
+        <v>1104.360473632812</v>
       </c>
       <c r="D63" t="n">
-        <v>0.121480372423927</v>
+        <v>0.08496217662468553</v>
       </c>
       <c r="E63" t="n">
-        <v>4235.259155273438</v>
+        <v>1104.11376953125</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1469,16 +1469,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.3103652944167455</v>
+        <v>0.3689460655053456</v>
       </c>
       <c r="C64" t="n">
-        <v>4153.525227864583</v>
+        <v>1085.364827473958</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1068771320084731</v>
+        <v>0.08934702041248481</v>
       </c>
       <c r="E64" t="n">
-        <v>4153.32177734375</v>
+        <v>1085.085194905599</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1486,16 +1486,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2950405130783717</v>
+        <v>0.4090358267227809</v>
       </c>
       <c r="C65" t="n">
-        <v>4073.123128255208</v>
+        <v>1066.704060872396</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1662286308904489</v>
+        <v>0.0867930402358373</v>
       </c>
       <c r="E65" t="n">
-        <v>4072.994344075521</v>
+        <v>1066.381846110026</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1503,16 +1503,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.410966823498408</v>
+        <v>0.6185968021551768</v>
       </c>
       <c r="C66" t="n">
-        <v>3994.36279296875</v>
+        <v>1048.540445963542</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1250809182723363</v>
+        <v>0.1179037919888894</v>
       </c>
       <c r="E66" t="n">
-        <v>3994.076985677083</v>
+        <v>1048.039794921875</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1520,16 +1520,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5100414976477623</v>
+        <v>0.4655092656612396</v>
       </c>
       <c r="C67" t="n">
-        <v>3917.068115234375</v>
+        <v>1030.338419596354</v>
       </c>
       <c r="D67" t="n">
-        <v>0.09717261729141076</v>
+        <v>0.1012655012309551</v>
       </c>
       <c r="E67" t="n">
-        <v>3916.655293782552</v>
+        <v>1029.974192301432</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1537,16 +1537,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3600600759188334</v>
+        <v>0.2752718751629193</v>
       </c>
       <c r="C68" t="n">
-        <v>3840.980387369792</v>
+        <v>1012.416687011719</v>
       </c>
       <c r="D68" t="n">
-        <v>0.206350871672233</v>
+        <v>0.09779406214753787</v>
       </c>
       <c r="E68" t="n">
-        <v>3840.826700846354</v>
+        <v>1012.239217122396</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1554,16 +1554,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6182390302419662</v>
+        <v>0.2099047874410947</v>
       </c>
       <c r="C69" t="n">
-        <v>3766.732259114583</v>
+        <v>994.9301961263021</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1594104133546352</v>
+        <v>0.09098016222318013</v>
       </c>
       <c r="E69" t="n">
-        <v>3766.273457845052</v>
+        <v>994.8112589518229</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1571,16 +1571,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.581274633606275</v>
+        <v>0.1744559680422147</v>
       </c>
       <c r="C70" t="n">
-        <v>3693.593505859375</v>
+        <v>977.7798055013021</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1156290989990036</v>
+        <v>0.09102176564435165</v>
       </c>
       <c r="E70" t="n">
-        <v>3693.127848307292</v>
+        <v>977.6963653564453</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1588,16 +1588,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3478653853138288</v>
+        <v>0.1292608653505643</v>
       </c>
       <c r="C71" t="n">
-        <v>3621.63818359375</v>
+        <v>960.924560546875</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1014319242288669</v>
+        <v>0.1124344319105148</v>
       </c>
       <c r="E71" t="n">
-        <v>3621.391682942708</v>
+        <v>960.9077097574869</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1605,16 +1605,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6085685789585114</v>
+        <v>0.3278707712888718</v>
       </c>
       <c r="C72" t="n">
-        <v>3551.527994791667</v>
+        <v>944.6076456705729</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1030004089698195</v>
+        <v>0.1014703940600157</v>
       </c>
       <c r="E72" t="n">
-        <v>3551.022440592448</v>
+        <v>944.3812510172526</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1622,16 +1622,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7563207447528839</v>
+        <v>0.2597216814756393</v>
       </c>
       <c r="C73" t="n">
-        <v>3482.6337890625</v>
+        <v>928.3130696614584</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1081183279554049</v>
+        <v>0.08509046398103237</v>
       </c>
       <c r="E73" t="n">
-        <v>3481.985595703125</v>
+        <v>928.1384429931641</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1639,16 +1639,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6093851427237192</v>
+        <v>0.3799150784810384</v>
       </c>
       <c r="C74" t="n">
-        <v>3414.747477213542</v>
+        <v>912.4935709635416</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1040257314840953</v>
+        <v>0.09356635063886642</v>
       </c>
       <c r="E74" t="n">
-        <v>3414.242207845052</v>
+        <v>912.2072194417318</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1656,16 +1656,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5032596935828527</v>
+        <v>0.288106178243955</v>
       </c>
       <c r="C75" t="n">
-        <v>3348.181966145833</v>
+        <v>896.7423299153646</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1202213373035192</v>
+        <v>0.08819719310849905</v>
       </c>
       <c r="E75" t="n">
-        <v>3347.798909505208</v>
+        <v>896.5424143473307</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1673,16 +1673,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.3759650401771069</v>
+        <v>0.3641879012187322</v>
       </c>
       <c r="C76" t="n">
-        <v>3282.858642578125</v>
+        <v>881.4346923828125</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1213497873395681</v>
+        <v>0.08595861215144396</v>
       </c>
       <c r="E76" t="n">
-        <v>3282.603983561198</v>
+        <v>881.1564483642578</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1690,16 +1690,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6457794904708862</v>
+        <v>0.6668349802494049</v>
       </c>
       <c r="C77" t="n">
-        <v>3219.166015625</v>
+        <v>866.6236572265625</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1443986054509878</v>
+        <v>0.1052062461773555</v>
       </c>
       <c r="E77" t="n">
-        <v>3218.66465250651</v>
+        <v>866.0620574951172</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1707,16 +1707,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4951971669991811</v>
+        <v>0.3868914842605591</v>
       </c>
       <c r="C78" t="n">
-        <v>3156.269856770833</v>
+        <v>851.496337890625</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1060449838017424</v>
+        <v>0.08480975466469924</v>
       </c>
       <c r="E78" t="n">
-        <v>3155.880716959635</v>
+        <v>851.1942545572916</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1724,16 +1724,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8927821119626363</v>
+        <v>0.3801585833231608</v>
       </c>
       <c r="C79" t="n">
-        <v>3095.11572265625</v>
+        <v>836.9045003255209</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1007466477652391</v>
+        <v>0.09541237726807594</v>
       </c>
       <c r="E79" t="n">
-        <v>3094.323649088542</v>
+        <v>836.6197662353516</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1741,16 +1741,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7292963266372681</v>
+        <v>0.2737368196249008</v>
       </c>
       <c r="C80" t="n">
-        <v>3034.56982421875</v>
+        <v>822.4706420898438</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1109579478700956</v>
+        <v>0.0805411571636796</v>
       </c>
       <c r="E80" t="n">
-        <v>3033.951497395833</v>
+        <v>822.2774454752604</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1758,16 +1758,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9683817923069</v>
+        <v>0.3412927240133286</v>
       </c>
       <c r="C81" t="n">
-        <v>2975.572672526042</v>
+        <v>808.4637858072916</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1252305340021849</v>
+        <v>0.08065886329859495</v>
       </c>
       <c r="E81" t="n">
-        <v>2974.729471842448</v>
+        <v>808.2031606038412</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1775,16 +1775,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7445845603942871</v>
+        <v>0.3360100934902827</v>
       </c>
       <c r="C82" t="n">
-        <v>2917.241129557292</v>
+        <v>794.6339314778646</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1067856755107641</v>
+        <v>0.08107928403963645</v>
       </c>
       <c r="E82" t="n">
-        <v>2916.603352864583</v>
+        <v>794.3789876302084</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1792,16 +1792,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6901489297548929</v>
+        <v>0.2701131105422974</v>
       </c>
       <c r="C83" t="n">
-        <v>2860.189208984375</v>
+        <v>780.9882609049479</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1212450874348481</v>
+        <v>0.09145811075965564</v>
       </c>
       <c r="E83" t="n">
-        <v>2859.620279947917</v>
+        <v>780.8096059163412</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1809,16 +1809,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4955156842867534</v>
+        <v>0.3536252031723658</v>
       </c>
       <c r="C84" t="n">
-        <v>2804.09033203125</v>
+        <v>767.7318115234375</v>
       </c>
       <c r="D84" t="n">
-        <v>0.128108740473787</v>
+        <v>0.08302113227546215</v>
       </c>
       <c r="E84" t="n">
-        <v>2803.722839355469</v>
+        <v>767.461191813151</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1826,16 +1826,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0.616796463727951</v>
+        <v>0.3443936655918757</v>
       </c>
       <c r="C85" t="n">
-        <v>2749.374348958333</v>
+        <v>754.6180216471354</v>
       </c>
       <c r="D85" t="n">
-        <v>0.107117772102356</v>
+        <v>0.09816027556856473</v>
       </c>
       <c r="E85" t="n">
-        <v>2748.864705403646</v>
+        <v>754.3717854817709</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1843,16 +1843,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7402984201908112</v>
+        <v>0.4604586859544118</v>
       </c>
       <c r="C86" t="n">
-        <v>2695.707356770833</v>
+        <v>741.8616943359375</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1175333311160405</v>
+        <v>0.08285997249186039</v>
       </c>
       <c r="E86" t="n">
-        <v>2695.084594726562</v>
+        <v>741.4841054280599</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1860,16 +1860,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0.516094870865345</v>
+        <v>0.435474415620168</v>
       </c>
       <c r="C87" t="n">
-        <v>2642.720703125</v>
+        <v>729.1918741861979</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1005966334293286</v>
+        <v>0.08493096474558115</v>
       </c>
       <c r="E87" t="n">
-        <v>2642.30517578125</v>
+        <v>728.8413391113281</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1877,16 +1877,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4891509612401326</v>
+        <v>0.4116893808046977</v>
       </c>
       <c r="C88" t="n">
-        <v>2590.940592447917</v>
+        <v>716.7488606770834</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1384204104542732</v>
+        <v>0.08645933773368597</v>
       </c>
       <c r="E88" t="n">
-        <v>2590.58984375</v>
+        <v>716.4236246744791</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1894,16 +1894,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0.09182045608758926</v>
+        <v>0.2570582255721092</v>
       </c>
       <c r="C89" t="n">
-        <v>2539.784423828125</v>
+        <v>704.3953043619791</v>
       </c>
       <c r="D89" t="n">
-        <v>0.09703035528461139</v>
+        <v>0.08558709112306435</v>
       </c>
       <c r="E89" t="n">
-        <v>2539.789693196615</v>
+        <v>704.2238210042318</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1911,16 +1911,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0.2062696839372317</v>
+        <v>0.1493097593386968</v>
       </c>
       <c r="C90" t="n">
-        <v>2490.111735026042</v>
+        <v>692.3049519856771</v>
       </c>
       <c r="D90" t="n">
-        <v>0.09226914060612519</v>
+        <v>0.09054950376351674</v>
       </c>
       <c r="E90" t="n">
-        <v>2489.997823079427</v>
+        <v>692.2461802164713</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1928,16 +1928,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.3040615891416867</v>
+        <v>0.2882007459799449</v>
       </c>
       <c r="C91" t="n">
-        <v>2441.383382161458</v>
+        <v>680.6736246744791</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1257257678856452</v>
+        <v>0.08145507580290239</v>
       </c>
       <c r="E91" t="n">
-        <v>2441.205057779948</v>
+        <v>680.4668986002604</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1945,16 +1945,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>0.3739986071983973</v>
+        <v>0.4405004779497783</v>
       </c>
       <c r="C92" t="n">
-        <v>2393.567138671875</v>
+        <v>669.2648518880209</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1305370113501946</v>
+        <v>0.1037887589385112</v>
       </c>
       <c r="E92" t="n">
-        <v>2393.32362874349</v>
+        <v>668.9281311035156</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1962,16 +1962,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.2938407460848491</v>
+        <v>0.4156644741694133</v>
       </c>
       <c r="C93" t="n">
-        <v>2346.522786458333</v>
+        <v>657.8849690755209</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1724920918544134</v>
+        <v>0.09314293166001637</v>
       </c>
       <c r="E93" t="n">
-        <v>2346.401509602865</v>
+        <v>657.5624338785807</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1979,16 +1979,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0.2204438894987106</v>
+        <v>0.4002029200394948</v>
       </c>
       <c r="C94" t="n">
-        <v>2300.3896484375</v>
+        <v>646.7170817057291</v>
       </c>
       <c r="D94" t="n">
-        <v>0.139729796598355</v>
+        <v>0.1026806483666102</v>
       </c>
       <c r="E94" t="n">
-        <v>2300.308939615885</v>
+        <v>646.4195810953776</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1996,16 +1996,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0.2102850427230199</v>
+        <v>0.4466054042180379</v>
       </c>
       <c r="C95" t="n">
-        <v>2255.208821614583</v>
+        <v>635.8083089192709</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1029463733235995</v>
+        <v>0.09332262786726157</v>
       </c>
       <c r="E95" t="n">
-        <v>2255.10146077474</v>
+        <v>635.4550221761068</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2013,16 +2013,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0.2564486265182495</v>
+        <v>0.2120865111549695</v>
       </c>
       <c r="C96" t="n">
-        <v>2210.960042317708</v>
+        <v>624.8138224283854</v>
       </c>
       <c r="D96" t="n">
-        <v>0.09659491417308648</v>
+        <v>0.1096688006073236</v>
       </c>
       <c r="E96" t="n">
-        <v>2210.800231933594</v>
+        <v>624.711415608724</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2030,16 +2030,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5037213762601217</v>
+        <v>0.3585377583901088</v>
       </c>
       <c r="C97" t="n">
-        <v>2167.768391927083</v>
+        <v>614.3916625976562</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1589643315722545</v>
+        <v>0.09017082365850608</v>
       </c>
       <c r="E97" t="n">
-        <v>2167.423583984375</v>
+        <v>614.1233164469401</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2047,16 +2047,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0.3000423113505046</v>
+        <v>0.1498657912015915</v>
       </c>
       <c r="C98" t="n">
-        <v>2124.967936197917</v>
+        <v>603.8029378255209</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1409064767261346</v>
+        <v>0.1150302458554506</v>
       </c>
       <c r="E98" t="n">
-        <v>2124.808878580729</v>
+        <v>603.7681070963541</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2064,16 +2064,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4305377602577209</v>
+        <v>0.2461323539415995</v>
       </c>
       <c r="C99" t="n">
-        <v>2083.326822916667</v>
+        <v>593.7047526041666</v>
       </c>
       <c r="D99" t="n">
-        <v>0.109209306538105</v>
+        <v>0.09444002248346806</v>
       </c>
       <c r="E99" t="n">
-        <v>2083.005432128906</v>
+        <v>593.5530497233073</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2081,16 +2081,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5671367247899374</v>
+        <v>0.2963633586963018</v>
       </c>
       <c r="C100" t="n">
-        <v>2042.500366210938</v>
+        <v>583.7419840494791</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1197180965294441</v>
+        <v>0.08343289885669947</v>
       </c>
       <c r="E100" t="n">
-        <v>2042.052958170573</v>
+        <v>583.5290578206381</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2098,16 +2098,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6108948588371277</v>
+        <v>0.2782504856586456</v>
       </c>
       <c r="C101" t="n">
-        <v>2002.379679361979</v>
+        <v>573.8894653320312</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1485109801093737</v>
+        <v>0.1137817356114586</v>
       </c>
       <c r="E101" t="n">
-        <v>2001.917307535807</v>
+        <v>573.7249908447266</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2115,16 +2115,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4513405114412308</v>
+        <v>0.2297790621717771</v>
       </c>
       <c r="C102" t="n">
-        <v>1962.838460286458</v>
+        <v>564.1836547851562</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0945097307364146</v>
+        <v>0.1214462832237283</v>
       </c>
       <c r="E102" t="n">
-        <v>1962.481597900391</v>
+        <v>564.0753021240234</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2132,16 +2132,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1416827514767647</v>
+        <v>0.2886209686597188</v>
       </c>
       <c r="C103" t="n">
-        <v>1923.912923177083</v>
+        <v>554.7587280273438</v>
       </c>
       <c r="D103" t="n">
-        <v>0.13703328743577</v>
+        <v>0.08703149482607841</v>
       </c>
       <c r="E103" t="n">
-        <v>1923.908284505208</v>
+        <v>554.557118733724</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2149,16 +2149,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1140492434302966</v>
+        <v>0.3257459153731664</v>
       </c>
       <c r="C104" t="n">
-        <v>1886.023356119792</v>
+        <v>545.4809163411459</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1649937139203151</v>
+        <v>0.1041533450285594</v>
       </c>
       <c r="E104" t="n">
-        <v>1886.074300130208</v>
+        <v>545.2593129475912</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2166,16 +2166,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>0.09617492308219273</v>
+        <v>0.5758566558361053</v>
       </c>
       <c r="C105" t="n">
-        <v>1848.882283528646</v>
+        <v>536.5817667643229</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1166263098518054</v>
+        <v>0.0894427103921771</v>
       </c>
       <c r="E105" t="n">
-        <v>1848.902750651042</v>
+        <v>536.0953623453776</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2183,16 +2183,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.3013939162095388</v>
+        <v>0.413730005423228</v>
       </c>
       <c r="C106" t="n">
-        <v>1812.690673828125</v>
+        <v>527.4350382486979</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1297111051777999</v>
+        <v>0.08350196325530608</v>
       </c>
       <c r="E106" t="n">
-        <v>1812.518981933594</v>
+        <v>527.1047973632812</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2200,16 +2200,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1434859062234561</v>
+        <v>0.2072167570392291</v>
       </c>
       <c r="C107" t="n">
-        <v>1776.849650065104</v>
+        <v>518.4037272135416</v>
       </c>
       <c r="D107" t="n">
-        <v>0.2206212418774764</v>
+        <v>0.08756227263559897</v>
       </c>
       <c r="E107" t="n">
-        <v>1776.926818847656</v>
+        <v>518.2840932210287</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2217,16 +2217,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>0.2072589099407196</v>
+        <v>0.2647496908903122</v>
       </c>
       <c r="C108" t="n">
-        <v>1741.935668945312</v>
+        <v>509.7944132486979</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1281654456009468</v>
+        <v>0.08418112248182297</v>
       </c>
       <c r="E108" t="n">
-        <v>1741.856557210286</v>
+        <v>509.6138432820638</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2234,16 +2234,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>0.3019390106201172</v>
+        <v>0.3513763795296351</v>
       </c>
       <c r="C109" t="n">
-        <v>1707.735758463542</v>
+        <v>501.3701070149739</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1507305254538854</v>
+        <v>0.08405716437846422</v>
       </c>
       <c r="E109" t="n">
-        <v>1707.584564208984</v>
+        <v>501.1027933756511</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2251,16 +2251,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>0.4246554970741272</v>
+        <v>0.2466270675261815</v>
       </c>
       <c r="C110" t="n">
-        <v>1674.238118489583</v>
+        <v>492.9077657063802</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1108430841316779</v>
+        <v>0.08863344260801871</v>
       </c>
       <c r="E110" t="n">
-        <v>1673.924326578776</v>
+        <v>492.7497685750325</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2268,16 +2268,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5287899772326151</v>
+        <v>0.332109938065211</v>
       </c>
       <c r="C111" t="n">
-        <v>1641.383138020833</v>
+        <v>484.7854817708333</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1064754569282134</v>
+        <v>0.09392642850677173</v>
       </c>
       <c r="E111" t="n">
-        <v>1640.96083577474</v>
+        <v>484.5472971598307</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2285,16 +2285,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>0.2733768920103709</v>
+        <v>0.2031903564929962</v>
       </c>
       <c r="C112" t="n">
-        <v>1608.815226236979</v>
+        <v>476.5952555338542</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1005908337732156</v>
+        <v>0.1047291016827027</v>
       </c>
       <c r="E112" t="n">
-        <v>1608.642466227214</v>
+        <v>476.4967880249023</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2302,16 +2302,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>0.3267837464809418</v>
+        <v>0.3708213567733765</v>
       </c>
       <c r="C113" t="n">
-        <v>1577.195109049479</v>
+        <v>468.8472290039062</v>
       </c>
       <c r="D113" t="n">
-        <v>0.09856870584189892</v>
+        <v>0.08576316107064486</v>
       </c>
       <c r="E113" t="n">
-        <v>1576.966857910156</v>
+        <v>468.5621719360352</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2319,16 +2319,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1297140096624692</v>
+        <v>0.3215894301732381</v>
       </c>
       <c r="C114" t="n">
-        <v>1545.950520833333</v>
+        <v>461.024658203125</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1673603368302186</v>
+        <v>0.08604854655762513</v>
       </c>
       <c r="E114" t="n">
-        <v>1545.988169352214</v>
+        <v>460.7891133626302</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2336,16 +2336,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>0.2066921641429265</v>
+        <v>0.2015569756428401</v>
       </c>
       <c r="C115" t="n">
-        <v>1515.593994140625</v>
+        <v>453.2711791992188</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1316790239264568</v>
+        <v>0.09654669463634491</v>
       </c>
       <c r="E115" t="n">
-        <v>1515.519012451172</v>
+        <v>453.1661580403646</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2353,16 +2353,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1021010677019755</v>
+        <v>0.2687466690937678</v>
       </c>
       <c r="C116" t="n">
-        <v>1485.657999674479</v>
+        <v>445.8430582682292</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1028412211065491</v>
+        <v>0.09628981910645962</v>
       </c>
       <c r="E116" t="n">
-        <v>1485.658752441406</v>
+        <v>445.6705983479818</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2370,16 +2370,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.07562071705857913</v>
+        <v>0.2403128196795782</v>
       </c>
       <c r="C117" t="n">
-        <v>1456.392537434896</v>
+        <v>438.4542134602864</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1227504083265861</v>
+        <v>0.08371881302446127</v>
       </c>
       <c r="E117" t="n">
-        <v>1456.439646402995</v>
+        <v>438.2976150512695</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2387,16 +2387,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2469939192136129</v>
+        <v>0.3277902255455653</v>
       </c>
       <c r="C118" t="n">
-        <v>1427.903279622396</v>
+        <v>431.3133951822917</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1308188686768214</v>
+        <v>0.09572449326515198</v>
       </c>
       <c r="E118" t="n">
-        <v>1427.787048339844</v>
+        <v>431.0813217163086</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2404,16 +2404,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1213210051258405</v>
+        <v>0.373713493347168</v>
       </c>
       <c r="C119" t="n">
-        <v>1399.687133789062</v>
+        <v>424.2600402832031</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1013482455164194</v>
+        <v>0.09251538353661697</v>
       </c>
       <c r="E119" t="n">
-        <v>1399.667154947917</v>
+        <v>423.9788360595703</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2421,16 +2421,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>0.06133336946368217</v>
+        <v>0.3239272783199946</v>
       </c>
       <c r="C120" t="n">
-        <v>1372.096638997396</v>
+        <v>417.2401224772136</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1078798156231642</v>
+        <v>0.0957175949588418</v>
       </c>
       <c r="E120" t="n">
-        <v>1372.143157958984</v>
+        <v>417.0119196573893</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2438,16 +2438,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>0.07978182037671407</v>
+        <v>0.1928706467151642</v>
       </c>
       <c r="C121" t="n">
-        <v>1345.131184895833</v>
+        <v>410.2652486165364</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1470374340812365</v>
+        <v>0.09678592160344124</v>
       </c>
       <c r="E121" t="n">
-        <v>1345.198435465495</v>
+        <v>410.1691767374675</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2455,16 +2455,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1033219123880069</v>
+        <v>0.1922196447849274</v>
       </c>
       <c r="C122" t="n">
-        <v>1318.708658854167</v>
+        <v>403.5444030761719</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1814518670241038</v>
+        <v>0.09520551189780235</v>
       </c>
       <c r="E122" t="n">
-        <v>1318.786794026693</v>
+        <v>403.4473775227864</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2472,16 +2472,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1379169672727585</v>
+        <v>0.263035590449969</v>
       </c>
       <c r="C123" t="n">
-        <v>1292.829549153646</v>
+        <v>397.0160827636719</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1395349490145842</v>
+        <v>0.08781146847953399</v>
       </c>
       <c r="E123" t="n">
-        <v>1292.831176757812</v>
+        <v>396.8408660888672</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2489,16 +2489,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1601161112387975</v>
+        <v>0.273364116748174</v>
       </c>
       <c r="C124" t="n">
-        <v>1267.456868489583</v>
+        <v>390.5467732747396</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1259837318211794</v>
+        <v>0.09557228907942772</v>
       </c>
       <c r="E124" t="n">
-        <v>1267.422739664714</v>
+        <v>390.3689753214518</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2506,16 +2506,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>0.2436890751123428</v>
+        <v>0.3069908122221629</v>
       </c>
       <c r="C125" t="n">
-        <v>1242.655436197917</v>
+        <v>384.2170817057292</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1026286277920008</v>
+        <v>0.08640520585079987</v>
       </c>
       <c r="E125" t="n">
-        <v>1242.514383951823</v>
+        <v>383.9965006510417</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2523,16 +2523,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4649573763211568</v>
+        <v>0.2604343344767888</v>
       </c>
       <c r="C126" t="n">
-        <v>1218.489583333333</v>
+        <v>377.9221089680989</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1078545891990264</v>
+        <v>0.08706089699019988</v>
       </c>
       <c r="E126" t="n">
-        <v>1218.132517496745</v>
+        <v>377.7487436930339</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2540,16 +2540,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3967845340569814</v>
+        <v>0.202376256386439</v>
       </c>
       <c r="C127" t="n">
-        <v>1194.523518880208</v>
+        <v>371.7291768391927</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1390801376352707</v>
+        <v>0.0896404106169939</v>
       </c>
       <c r="E127" t="n">
-        <v>1194.265797932943</v>
+        <v>371.6164347330729</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2557,16 +2557,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>0.2898788253466288</v>
+        <v>0.0934137577811877</v>
       </c>
       <c r="C128" t="n">
-        <v>1170.998901367188</v>
+        <v>365.5966796875</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1090714950114489</v>
+        <v>0.1125305565074086</v>
       </c>
       <c r="E128" t="n">
-        <v>1170.818064371745</v>
+        <v>365.6157964070638</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2574,16 +2574,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1812753280003866</v>
+        <v>0.1952974572777748</v>
       </c>
       <c r="C129" t="n">
-        <v>1147.943359375</v>
+        <v>359.7855326334636</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1092366445809603</v>
+        <v>0.09261927753686905</v>
       </c>
       <c r="E129" t="n">
-        <v>1147.871337890625</v>
+        <v>359.682861328125</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2591,16 +2591,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>0.224051167567571</v>
+        <v>0.1170254697402318</v>
       </c>
       <c r="C130" t="n">
-        <v>1125.500651041667</v>
+        <v>353.9015401204427</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1498657322178284</v>
+        <v>0.08915342887242635</v>
       </c>
       <c r="E130" t="n">
-        <v>1125.426472981771</v>
+        <v>353.8736673990886</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2608,16 +2608,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>0.06840558722615242</v>
+        <v>0.2773778984944026</v>
       </c>
       <c r="C131" t="n">
-        <v>1103.313639322917</v>
+        <v>348.3606974283854</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1244331498940786</v>
+        <v>0.08730273755888145</v>
       </c>
       <c r="E131" t="n">
-        <v>1103.369669596354</v>
+        <v>348.1706110636393</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2625,16 +2625,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>0.03875152518351873</v>
+        <v>0.09797701487938563</v>
       </c>
       <c r="C132" t="n">
-        <v>1081.695963541667</v>
+        <v>342.5832112630208</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1006792889287074</v>
+        <v>0.1067417555799087</v>
       </c>
       <c r="E132" t="n">
-        <v>1081.757893880208</v>
+        <v>342.5919723510742</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2642,16 +2642,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>0.2495048344135284</v>
+        <v>0.1958034311731656</v>
       </c>
       <c r="C133" t="n">
-        <v>1060.756225585938</v>
+        <v>337.1852823893229</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1334655986477931</v>
+        <v>0.09046787520249684</v>
       </c>
       <c r="E133" t="n">
-        <v>1060.640207926432</v>
+        <v>337.0799407958984</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2659,16 +2659,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1794551312923431</v>
+        <v>0.2830965667963028</v>
       </c>
       <c r="C134" t="n">
-        <v>1039.96484375</v>
+        <v>331.8764241536458</v>
       </c>
       <c r="D134" t="n">
-        <v>0.1101361457258463</v>
+        <v>0.09684626509745915</v>
       </c>
       <c r="E134" t="n">
-        <v>1039.895548502604</v>
+        <v>331.6901702880859</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2676,16 +2676,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>0.08097104479869206</v>
+        <v>0.1334535901745161</v>
       </c>
       <c r="C135" t="n">
-        <v>1019.564860026042</v>
+        <v>326.4289245605469</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1305086389183998</v>
+        <v>0.0972274715701739</v>
       </c>
       <c r="E135" t="n">
-        <v>1019.614405314128</v>
+        <v>326.3927001953125</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2693,16 +2693,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>0.2103937417268753</v>
+        <v>0.1640567556023598</v>
       </c>
       <c r="C136" t="n">
-        <v>999.8049926757812</v>
+        <v>321.2579345703125</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1838746642072996</v>
+        <v>0.0875193973382314</v>
       </c>
       <c r="E136" t="n">
-        <v>999.7784779866537</v>
+        <v>321.1813888549805</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2710,16 +2710,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1669170210758845</v>
+        <v>0.2960908661286036</v>
       </c>
       <c r="C137" t="n">
-        <v>980.2799072265625</v>
+        <v>316.2815958658854</v>
       </c>
       <c r="D137" t="n">
-        <v>0.117966640740633</v>
+        <v>0.09958688728511333</v>
       </c>
       <c r="E137" t="n">
-        <v>980.230946858724</v>
+        <v>316.085085550944</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2727,16 +2727,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>0.145409402747949</v>
+        <v>0.1320364773273468</v>
       </c>
       <c r="C138" t="n">
-        <v>961.1715291341146</v>
+        <v>311.1031087239583</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1095200435568889</v>
+        <v>0.09609858008722465</v>
       </c>
       <c r="E138" t="n">
-        <v>961.1356353759766</v>
+        <v>311.0671666463216</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2744,16 +2744,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1110936750968297</v>
+        <v>0.2276231497526169</v>
       </c>
       <c r="C139" t="n">
-        <v>942.4430541992188</v>
+        <v>306.2757873535156</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1049776660899321</v>
+        <v>0.09136723478635152</v>
       </c>
       <c r="E139" t="n">
-        <v>942.4369506835938</v>
+        <v>306.1395263671875</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2761,16 +2761,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>0.206918939948082</v>
+        <v>0.1416285062829653</v>
       </c>
       <c r="C140" t="n">
-        <v>924.2215576171875</v>
+        <v>301.3563130696614</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1936032051841418</v>
+        <v>0.08924285353471835</v>
       </c>
       <c r="E140" t="n">
-        <v>924.208251953125</v>
+        <v>301.3039321899414</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2778,16 +2778,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>0.08257352560758591</v>
+        <v>0.07071464384595554</v>
       </c>
       <c r="C141" t="n">
-        <v>906.1569620768229</v>
+        <v>296.5395202636719</v>
       </c>
       <c r="D141" t="n">
-        <v>0.09742983244359493</v>
+        <v>0.126590300972263</v>
       </c>
       <c r="E141" t="n">
-        <v>906.1718292236328</v>
+        <v>296.5954030354818</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2795,16 +2795,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>0.2536318749189377</v>
+        <v>0.06052133937676748</v>
       </c>
       <c r="C142" t="n">
-        <v>888.7548624674479</v>
+        <v>291.8710632324219</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1005159616470337</v>
+        <v>0.09114095692833264</v>
       </c>
       <c r="E142" t="n">
-        <v>888.6017354329427</v>
+        <v>291.9016901652018</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2812,16 +2812,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>0.3196273495753606</v>
+        <v>0.2292500783999761</v>
       </c>
       <c r="C143" t="n">
-        <v>871.6066691080729</v>
+        <v>287.4658203125</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1042596458767851</v>
+        <v>0.130977489054203</v>
       </c>
       <c r="E143" t="n">
-        <v>871.3913116455078</v>
+        <v>287.3675486246745</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2829,16 +2829,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>0.3155675828456879</v>
+        <v>0.1201978002985318</v>
       </c>
       <c r="C144" t="n">
-        <v>854.7410278320312</v>
+        <v>282.8653767903646</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1046901239703099</v>
+        <v>0.100497106090188</v>
       </c>
       <c r="E144" t="n">
-        <v>854.5301615397135</v>
+        <v>282.8456751505534</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2846,16 +2846,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>0.2039169544974963</v>
+        <v>0.04384942104419073</v>
       </c>
       <c r="C145" t="n">
-        <v>838.1133829752604</v>
+        <v>278.3788146972656</v>
       </c>
       <c r="D145" t="n">
-        <v>0.1573437315722307</v>
+        <v>0.1398434384415547</v>
       </c>
       <c r="E145" t="n">
-        <v>838.0668334960938</v>
+        <v>278.4748051961263</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2863,16 +2863,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1550213545560837</v>
+        <v>0.08940117061138153</v>
       </c>
       <c r="C146" t="n">
-        <v>821.8870035807291</v>
+        <v>274.0968526204427</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1124322259177764</v>
+        <v>0.08671655040234327</v>
       </c>
       <c r="E146" t="n">
-        <v>821.8444213867188</v>
+        <v>274.0941619873047</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2880,16 +2880,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>0.07125736276308696</v>
+        <v>0.1625756124655406</v>
       </c>
       <c r="C147" t="n">
-        <v>805.9604085286459</v>
+        <v>269.9207255045573</v>
       </c>
       <c r="D147" t="n">
-        <v>0.1456079613417387</v>
+        <v>0.1023446886489789</v>
       </c>
       <c r="E147" t="n">
-        <v>806.0347646077474</v>
+        <v>269.8604939778646</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2897,16 +2897,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>0.09627271443605423</v>
+        <v>0.1607876668373744</v>
       </c>
       <c r="C148" t="n">
-        <v>790.4679768880209</v>
+        <v>265.7466023763021</v>
       </c>
       <c r="D148" t="n">
-        <v>0.1229626815766096</v>
+        <v>0.09663928393274546</v>
       </c>
       <c r="E148" t="n">
-        <v>790.4946645100912</v>
+        <v>265.6824544270833</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2914,16 +2914,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>0.2179164340098699</v>
+        <v>0.1630599995454153</v>
       </c>
       <c r="C149" t="n">
-        <v>775.3895670572916</v>
+        <v>261.6517944335938</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1075830198824406</v>
+        <v>0.1309619179616372</v>
       </c>
       <c r="E149" t="n">
-        <v>775.2792256673177</v>
+        <v>261.6197001139323</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2931,16 +2931,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>0.05371973291039467</v>
+        <v>0.02488808054476976</v>
       </c>
       <c r="C150" t="n">
-        <v>760.339111328125</v>
+        <v>257.4923502604167</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1504716239869595</v>
+        <v>0.09522688078383605</v>
       </c>
       <c r="E150" t="n">
-        <v>760.4358723958334</v>
+        <v>257.5626932779948</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2948,16 +2948,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1407576302687327</v>
+        <v>0.1390051767230034</v>
       </c>
       <c r="C151" t="n">
-        <v>745.8484090169271</v>
+        <v>253.6584116617838</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1178664869318406</v>
+        <v>0.08840005906919639</v>
       </c>
       <c r="E151" t="n">
-        <v>745.8255055745443</v>
+        <v>253.6078084309896</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2965,16 +2965,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>0.2632541457811992</v>
+        <v>0.1180893133083979</v>
       </c>
       <c r="C152" t="n">
-        <v>731.6929931640625</v>
+        <v>249.7606658935547</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1089404529581467</v>
+        <v>0.09255276682476203</v>
       </c>
       <c r="E152" t="n">
-        <v>731.5386912027994</v>
+        <v>249.7351290384928</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2982,16 +2982,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>0.3057502806186676</v>
+        <v>0.06873419508337975</v>
       </c>
       <c r="C153" t="n">
-        <v>717.7535603841146</v>
+        <v>245.9052174886068</v>
       </c>
       <c r="D153" t="n">
-        <v>0.1062716959665219</v>
+        <v>0.1037462598954638</v>
       </c>
       <c r="E153" t="n">
-        <v>717.5540873209635</v>
+        <v>245.940232594808</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2999,16 +2999,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>0.2380915482838949</v>
+        <v>0.02839247075219949</v>
       </c>
       <c r="C154" t="n">
-        <v>703.9933471679688</v>
+        <v>242.1290435791016</v>
       </c>
       <c r="D154" t="n">
-        <v>0.1067511973281701</v>
+        <v>0.08948278178771336</v>
       </c>
       <c r="E154" t="n">
-        <v>703.8619995117188</v>
+        <v>242.1901308695475</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3016,16 +3016,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>0.04592646782596906</v>
+        <v>0.03880372270941734</v>
       </c>
       <c r="C155" t="n">
-        <v>690.3922322591146</v>
+        <v>238.4709777832031</v>
       </c>
       <c r="D155" t="n">
-        <v>0.130599170923233</v>
+        <v>0.1118843561659257</v>
       </c>
       <c r="E155" t="n">
-        <v>690.4769134521484</v>
+        <v>238.544059753418</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3033,16 +3033,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>0.09308748319745064</v>
+        <v>0.1468649680415789</v>
       </c>
       <c r="C156" t="n">
-        <v>677.3092041015625</v>
+        <v>234.9767761230469</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1860953656335672</v>
+        <v>0.1153164977828662</v>
       </c>
       <c r="E156" t="n">
-        <v>677.4022216796875</v>
+        <v>234.9452260335287</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3050,16 +3050,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>0.260859618584315</v>
+        <v>0.07180919994910558</v>
       </c>
       <c r="C157" t="n">
-        <v>664.6226806640625</v>
+        <v>231.3651428222656</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1946355712910493</v>
+        <v>0.1016829914102952</v>
       </c>
       <c r="E157" t="n">
-        <v>664.5564575195312</v>
+        <v>231.39501953125</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3067,16 +3067,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>0.05998058803379536</v>
+        <v>0.04087656984726588</v>
       </c>
       <c r="C158" t="n">
-        <v>651.8337809244791</v>
+        <v>227.8617858886719</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1475192873428265</v>
+        <v>0.1168369399383664</v>
       </c>
       <c r="E158" t="n">
-        <v>651.9213205973307</v>
+        <v>227.9377428690592</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3084,16 +3084,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>0.1213639155030251</v>
+        <v>0.1327393402655919</v>
       </c>
       <c r="C159" t="n">
-        <v>639.5687052408854</v>
+        <v>224.5459798177083</v>
       </c>
       <c r="D159" t="n">
-        <v>0.1186898273105423</v>
+        <v>0.09500936605036259</v>
       </c>
       <c r="E159" t="n">
-        <v>639.5660196940104</v>
+        <v>224.508248647054</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3101,16 +3101,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0687879944841067</v>
+        <v>0.1247640748818715</v>
       </c>
       <c r="C160" t="n">
-        <v>627.4453328450521</v>
+        <v>221.1915791829427</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1217956077307463</v>
+        <v>0.09056051634252071</v>
       </c>
       <c r="E160" t="n">
-        <v>627.4983164469401</v>
+        <v>221.1573791503906</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3118,16 +3118,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>0.1304526155193647</v>
+        <v>0.04721993021667004</v>
       </c>
       <c r="C161" t="n">
-        <v>615.6873982747396</v>
+        <v>217.828379313151</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1194754261523485</v>
+        <v>0.08585563208907843</v>
       </c>
       <c r="E161" t="n">
-        <v>615.6764170328776</v>
+        <v>217.867015838623</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3135,16 +3135,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1404387826720873</v>
+        <v>0.03817819307247797</v>
       </c>
       <c r="C162" t="n">
-        <v>604.12451171875</v>
+        <v>214.5937194824219</v>
       </c>
       <c r="D162" t="n">
-        <v>0.3053357154130936</v>
+        <v>0.1149653693040212</v>
       </c>
       <c r="E162" t="n">
-        <v>604.2894083658854</v>
+        <v>214.6705080668131</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3152,16 +3152,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>0.05898877729972204</v>
+        <v>0.09423836568991344</v>
       </c>
       <c r="C163" t="n">
-        <v>592.7149251302084</v>
+        <v>211.482676188151</v>
       </c>
       <c r="D163" t="n">
-        <v>0.1400736657281717</v>
+        <v>0.08924095580975215</v>
       </c>
       <c r="E163" t="n">
-        <v>592.7960306803385</v>
+        <v>211.4776840209961</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3169,16 +3169,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0597031886378924</v>
+        <v>0.06037717747191588</v>
       </c>
       <c r="C164" t="n">
-        <v>581.6241048177084</v>
+        <v>208.3395538330078</v>
       </c>
       <c r="D164" t="n">
-        <v>0.1212743589033683</v>
+        <v>0.09327870110670726</v>
       </c>
       <c r="E164" t="n">
-        <v>581.6856689453125</v>
+        <v>208.3724530537923</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3186,16 +3186,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>0.05565328399340311</v>
+        <v>0.1005378589034081</v>
       </c>
       <c r="C165" t="n">
-        <v>570.7598673502604</v>
+        <v>205.3270568847656</v>
       </c>
       <c r="D165" t="n">
-        <v>0.1588504500687122</v>
+        <v>0.1024768960972627</v>
       </c>
       <c r="E165" t="n">
-        <v>570.8630727132162</v>
+        <v>205.3289922078451</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3203,16 +3203,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>0.110877533753713</v>
+        <v>0.05187037835518519</v>
       </c>
       <c r="C166" t="n">
-        <v>560.1828409830729</v>
+        <v>202.2803700764974</v>
       </c>
       <c r="D166" t="n">
-        <v>0.1296416074037552</v>
+        <v>0.1296942581733068</v>
       </c>
       <c r="E166" t="n">
-        <v>560.2015991210938</v>
+        <v>202.3581949869792</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3220,16 +3220,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>0.03170570110281309</v>
+        <v>0.1121207227309545</v>
       </c>
       <c r="C167" t="n">
-        <v>549.6930338541666</v>
+        <v>199.3982543945312</v>
       </c>
       <c r="D167" t="n">
-        <v>0.1218201437344154</v>
+        <v>0.1000999960427483</v>
       </c>
       <c r="E167" t="n">
-        <v>549.7831319173177</v>
+        <v>199.3862342834473</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3237,16 +3237,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>0.09507720172405243</v>
+        <v>0.07227511331439018</v>
       </c>
       <c r="C168" t="n">
-        <v>539.5640665690104</v>
+        <v>196.4695994059245</v>
       </c>
       <c r="D168" t="n">
-        <v>0.1166900862008333</v>
+        <v>0.09968687656025092</v>
       </c>
       <c r="E168" t="n">
-        <v>539.585683186849</v>
+        <v>196.4970118204753</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3254,16 +3254,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>0.04121112947662672</v>
+        <v>0.06967236039539178</v>
       </c>
       <c r="C169" t="n">
-        <v>529.5322875976562</v>
+        <v>193.6301727294922</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1528634813924631</v>
+        <v>0.09175207062313954</v>
       </c>
       <c r="E169" t="n">
-        <v>529.6439514160156</v>
+        <v>193.6522521972656</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3271,16 +3271,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>0.06039612429837386</v>
+        <v>0.07866375645001729</v>
       </c>
       <c r="C170" t="n">
-        <v>519.7826131184896</v>
+        <v>190.8536275227865</v>
       </c>
       <c r="D170" t="n">
-        <v>0.1230622430642446</v>
+        <v>0.09613657866915067</v>
       </c>
       <c r="E170" t="n">
-        <v>519.8452860514323</v>
+        <v>190.8711013793945</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3288,16 +3288,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>0.08639739702145259</v>
+        <v>0.08641811087727547</v>
       </c>
       <c r="C171" t="n">
-        <v>510.2443542480469</v>
+        <v>188.125981648763</v>
       </c>
       <c r="D171" t="n">
-        <v>0.1599555183202028</v>
+        <v>0.09719721414148808</v>
       </c>
       <c r="E171" t="n">
-        <v>510.3179117838542</v>
+        <v>188.1367607116699</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3305,16 +3305,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>0.1683896432320277</v>
+        <v>0.04779976109663645</v>
       </c>
       <c r="C172" t="n">
-        <v>500.9639587402344</v>
+        <v>185.4020640055338</v>
       </c>
       <c r="D172" t="n">
-        <v>0.117717740436395</v>
+        <v>0.1010260377079248</v>
       </c>
       <c r="E172" t="n">
-        <v>500.9132792154948</v>
+        <v>185.4552892049154</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3322,16 +3322,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>0.1181862205266953</v>
+        <v>0.07458053529262543</v>
       </c>
       <c r="C173" t="n">
-        <v>491.7479146321614</v>
+        <v>182.7916971842448</v>
       </c>
       <c r="D173" t="n">
-        <v>0.1075090312709411</v>
+        <v>0.08966382856791218</v>
       </c>
       <c r="E173" t="n">
-        <v>491.7372360229492</v>
+        <v>182.8067792256673</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3339,16 +3339,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>0.04412658512592316</v>
+        <v>0.06384475405017535</v>
       </c>
       <c r="C174" t="n">
-        <v>482.7000630696614</v>
+        <v>180.191899617513</v>
       </c>
       <c r="D174" t="n">
-        <v>0.1183026613046726</v>
+        <v>0.1095163393765688</v>
       </c>
       <c r="E174" t="n">
-        <v>482.7742436726888</v>
+        <v>180.2375691731771</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3356,16 +3356,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>0.05763920644919077</v>
+        <v>0.05012527853250504</v>
       </c>
       <c r="C175" t="n">
-        <v>473.9283650716146</v>
+        <v>177.6362152099609</v>
       </c>
       <c r="D175" t="n">
-        <v>0.1070577533294757</v>
+        <v>0.09481806556383769</v>
       </c>
       <c r="E175" t="n">
-        <v>473.9777857462565</v>
+        <v>177.6809094746908</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3373,16 +3373,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>0.1209911977251371</v>
+        <v>0.09277248134215672</v>
       </c>
       <c r="C176" t="n">
-        <v>465.3901163736979</v>
+        <v>175.182373046875</v>
       </c>
       <c r="D176" t="n">
-        <v>0.1306640300899744</v>
+        <v>0.1001332135250171</v>
       </c>
       <c r="E176" t="n">
-        <v>465.3997980753581</v>
+        <v>175.1897354125977</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3390,16 +3390,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1629993865887324</v>
+        <v>0.08395809431870778</v>
       </c>
       <c r="C177" t="n">
-        <v>457.011962890625</v>
+        <v>172.7220509847005</v>
       </c>
       <c r="D177" t="n">
-        <v>0.1182407923042774</v>
+        <v>0.0997328848267595</v>
       </c>
       <c r="E177" t="n">
-        <v>456.9672139485677</v>
+        <v>172.7378234863281</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3407,16 +3407,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>0.07708562538027763</v>
+        <v>0.210954005519549</v>
       </c>
       <c r="C178" t="n">
-        <v>448.6826273600261</v>
+        <v>170.4423421223958</v>
       </c>
       <c r="D178" t="n">
-        <v>0.1224772452066342</v>
+        <v>0.1221315922836463</v>
       </c>
       <c r="E178" t="n">
-        <v>448.7280069986979</v>
+        <v>170.3535143534342</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3424,16 +3424,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>0.02846852627893289</v>
+        <v>0.07951705902814865</v>
       </c>
       <c r="C179" t="n">
-        <v>440.5640258789062</v>
+        <v>167.9483642578125</v>
       </c>
       <c r="D179" t="n">
-        <v>0.1122781485319138</v>
+        <v>0.09550075698643923</v>
       </c>
       <c r="E179" t="n">
-        <v>440.647829691569</v>
+        <v>167.9643491109212</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3441,16 +3441,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>0.09011659274498622</v>
+        <v>0.09674133360385895</v>
       </c>
       <c r="C180" t="n">
-        <v>432.7253621419271</v>
+        <v>165.6452026367188</v>
       </c>
       <c r="D180" t="n">
-        <v>0.1389278182759881</v>
+        <v>0.09356348713239034</v>
       </c>
       <c r="E180" t="n">
-        <v>432.7741775512695</v>
+        <v>165.6420249938965</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3458,16 +3458,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>0.161026472846667</v>
+        <v>0.1733789394299189</v>
       </c>
       <c r="C181" t="n">
-        <v>425.0619710286458</v>
+        <v>163.4430796305338</v>
       </c>
       <c r="D181" t="n">
-        <v>0.1810455620288849</v>
+        <v>0.1065029414991538</v>
       </c>
       <c r="E181" t="n">
-        <v>425.0819880167643</v>
+        <v>163.3762003580729</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3475,16 +3475,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>0.04248372092843056</v>
+        <v>0.09245906646052997</v>
       </c>
       <c r="C182" t="n">
-        <v>417.3751220703125</v>
+        <v>161.1234181722005</v>
       </c>
       <c r="D182" t="n">
-        <v>0.1298917873452107</v>
+        <v>0.09842325871189435</v>
       </c>
       <c r="E182" t="n">
-        <v>417.462532043457</v>
+        <v>161.1293818155924</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3492,16 +3492,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>0.2831620077292125</v>
+        <v>0.0976839189728101</v>
       </c>
       <c r="C183" t="n">
-        <v>410.2065327962239</v>
+        <v>158.9307861328125</v>
       </c>
       <c r="D183" t="n">
-        <v>0.2047246421376864</v>
+        <v>0.09236361520985763</v>
       </c>
       <c r="E183" t="n">
-        <v>410.1281000773112</v>
+        <v>158.9254620869955</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3509,16 +3509,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>0.07148172333836555</v>
+        <v>0.1239071066180865</v>
       </c>
       <c r="C184" t="n">
-        <v>402.7428995768229</v>
+        <v>156.7985585530599</v>
       </c>
       <c r="D184" t="n">
-        <v>0.1172618338217338</v>
+        <v>0.09386402865250905</v>
       </c>
       <c r="E184" t="n">
-        <v>402.7886810302734</v>
+        <v>156.7685152689616</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3526,16 +3526,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>0.1070931230982145</v>
+        <v>0.1133711958924929</v>
       </c>
       <c r="C185" t="n">
-        <v>395.6789652506511</v>
+        <v>154.6686859130859</v>
       </c>
       <c r="D185" t="n">
-        <v>0.1079820832237601</v>
+        <v>0.09962444038440783</v>
       </c>
       <c r="E185" t="n">
-        <v>395.6798502604167</v>
+        <v>154.6549377441406</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3543,16 +3543,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>0.08761930962403615</v>
+        <v>0.04935628858705362</v>
       </c>
       <c r="C186" t="n">
-        <v>388.7093200683594</v>
+        <v>152.5243174235026</v>
       </c>
       <c r="D186" t="n">
-        <v>0.1089271021385988</v>
+        <v>0.1057452671229839</v>
       </c>
       <c r="E186" t="n">
-        <v>388.7306315104167</v>
+        <v>152.5807062784831</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3560,16 +3560,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>0.3374631603558858</v>
+        <v>0.08777215828498204</v>
       </c>
       <c r="C187" t="n">
-        <v>382.1552937825521</v>
+        <v>150.5182800292969</v>
       </c>
       <c r="D187" t="n">
-        <v>0.2007811032235622</v>
+        <v>0.09737341230114301</v>
       </c>
       <c r="E187" t="n">
-        <v>382.0186208089193</v>
+        <v>150.527884165446</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3577,16 +3577,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>0.1253611842791239</v>
+        <v>0.04866618166367213</v>
       </c>
       <c r="C188" t="n">
-        <v>375.2849019368489</v>
+        <v>148.4715169270833</v>
       </c>
       <c r="D188" t="n">
-        <v>0.151603601872921</v>
+        <v>0.09355083387345076</v>
       </c>
       <c r="E188" t="n">
-        <v>375.311144510905</v>
+        <v>148.5164031982422</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3594,16 +3594,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>0.08957382291555405</v>
+        <v>0.04040504805743694</v>
       </c>
       <c r="C189" t="n">
-        <v>368.7311503092448</v>
+        <v>146.4916687011719</v>
       </c>
       <c r="D189" t="n">
-        <v>0.110052440315485</v>
+        <v>0.09839370117212336</v>
       </c>
       <c r="E189" t="n">
-        <v>368.7516225179036</v>
+        <v>146.5496571858724</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3611,16 +3611,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>0.1925761451323827</v>
+        <v>0.05499419321616491</v>
       </c>
       <c r="C190" t="n">
-        <v>362.4515482584636</v>
+        <v>144.5694173177083</v>
       </c>
       <c r="D190" t="n">
-        <v>0.1372328121215105</v>
+        <v>0.09875059127807617</v>
       </c>
       <c r="E190" t="n">
-        <v>362.3962071736653</v>
+        <v>144.6131680806478</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3628,16 +3628,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>0.2344322204589844</v>
+        <v>0.1442763085166613</v>
       </c>
       <c r="C191" t="n">
-        <v>356.2468872070312</v>
+        <v>142.755620320638</v>
       </c>
       <c r="D191" t="n">
-        <v>0.2302617356181145</v>
+        <v>0.1041526366025209</v>
       </c>
       <c r="E191" t="n">
-        <v>356.2427113850911</v>
+        <v>142.7154960632324</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3645,16 +3645,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>0.3022417624791463</v>
+        <v>0.08168283849954605</v>
       </c>
       <c r="C192" t="n">
-        <v>350.2021077473958</v>
+        <v>140.8235219319662</v>
       </c>
       <c r="D192" t="n">
-        <v>0.1343562876184781</v>
+        <v>0.09546716262896855</v>
       </c>
       <c r="E192" t="n">
-        <v>350.0342280069987</v>
+        <v>140.8373031616211</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3662,16 +3662,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>0.07733281329274178</v>
+        <v>0.1388677209615707</v>
       </c>
       <c r="C193" t="n">
-        <v>343.9938049316406</v>
+        <v>139.0440826416016</v>
       </c>
       <c r="D193" t="n">
-        <v>0.1863700170069933</v>
+        <v>0.09558194161703189</v>
       </c>
       <c r="E193" t="n">
-        <v>344.1028416951497</v>
+        <v>139.0007934570312</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3679,16 +3679,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>0.2249183356761932</v>
+        <v>0.09985619535048802</v>
       </c>
       <c r="C194" t="n">
-        <v>338.2827250162761</v>
+        <v>137.201665242513</v>
       </c>
       <c r="D194" t="n">
-        <v>0.1799086034297943</v>
+        <v>0.1043853598336379</v>
       </c>
       <c r="E194" t="n">
-        <v>338.2377141316732</v>
+        <v>137.2061920166016</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3696,16 +3696,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>0.2050305902957916</v>
+        <v>0.1078889071941376</v>
       </c>
       <c r="C195" t="n">
-        <v>332.5265604654948</v>
+        <v>135.4387715657552</v>
       </c>
       <c r="D195" t="n">
-        <v>0.1798054166138172</v>
+        <v>0.09526503272354603</v>
       </c>
       <c r="E195" t="n">
-        <v>332.5013376871745</v>
+        <v>135.426150004069</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3713,16 +3713,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>0.1191386009256045</v>
+        <v>0.07088001444935799</v>
       </c>
       <c r="C196" t="n">
-        <v>326.8256022135417</v>
+        <v>133.6618855794271</v>
       </c>
       <c r="D196" t="n">
-        <v>0.1249864865094423</v>
+        <v>0.09815711652239163</v>
       </c>
       <c r="E196" t="n">
-        <v>326.8314361572266</v>
+        <v>133.6891606648763</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3730,16 +3730,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>0.03677453597386678</v>
+        <v>0.08803899958729744</v>
       </c>
       <c r="C197" t="n">
-        <v>321.2468465169271</v>
+        <v>131.9696451822917</v>
       </c>
       <c r="D197" t="n">
-        <v>0.1045840904116631</v>
+        <v>0.09968551248311996</v>
       </c>
       <c r="E197" t="n">
-        <v>321.3146692911784</v>
+        <v>131.9812914530436</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3747,16 +3747,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>0.1416017760833105</v>
+        <v>0.03771932361026605</v>
       </c>
       <c r="C198" t="n">
-        <v>315.9703063964844</v>
+        <v>130.2400563557943</v>
       </c>
       <c r="D198" t="n">
-        <v>0.1224261832733949</v>
+        <v>0.1084517035633326</v>
       </c>
       <c r="E198" t="n">
-        <v>315.9511337280273</v>
+        <v>130.3107833862305</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3764,16 +3764,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>0.07935116812586784</v>
+        <v>0.03523303630451361</v>
       </c>
       <c r="C199" t="n">
-        <v>310.6396179199219</v>
+        <v>128.5885060628255</v>
       </c>
       <c r="D199" t="n">
-        <v>0.1343771501754721</v>
+        <v>0.1074556733171145</v>
       </c>
       <c r="E199" t="n">
-        <v>310.6946487426758</v>
+        <v>128.6607246398926</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3781,16 +3781,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>0.07457493245601654</v>
+        <v>0.1916048924128214</v>
       </c>
       <c r="C200" t="n">
-        <v>305.4774983723958</v>
+        <v>127.1249694824219</v>
       </c>
       <c r="D200" t="n">
-        <v>0.1278765648603439</v>
+        <v>0.1118920135001342</v>
       </c>
       <c r="E200" t="n">
-        <v>305.5307973225911</v>
+        <v>127.0452569325765</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3798,16 +3798,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>0.03156594590594371</v>
+        <v>0.09698168436686198</v>
       </c>
       <c r="C201" t="n">
-        <v>300.3849589029948</v>
+        <v>125.437868754069</v>
       </c>
       <c r="D201" t="n">
-        <v>0.108243003487587</v>
+        <v>0.09623526160915692</v>
       </c>
       <c r="E201" t="n">
-        <v>300.4616394042969</v>
+        <v>125.4371248881022</v>
       </c>
     </row>
   </sheetData>
@@ -3842,7 +3842,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B2" t="n">
-        <v>1.307234168052673</v>
+        <v>1.07585883140564</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3850,7 +3850,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7316204309463501</v>
+        <v>1.08606481552124</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3858,7 +3858,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B4" t="n">
-        <v>1.253966212272644</v>
+        <v>1.120134234428406</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3866,7 +3866,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7780872583389282</v>
+        <v>1.059528589248657</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3874,7 +3874,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B6" t="n">
-        <v>1.196891665458679</v>
+        <v>1.037138700485229</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3882,7 +3882,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B7" t="n">
-        <v>1.139195203781128</v>
+        <v>0.999301552772522</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3890,7 +3890,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8648678064346313</v>
+        <v>0.9969127178192139</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3898,7 +3898,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B9" t="n">
-        <v>1.05932891368866</v>
+        <v>1.114496827125549</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B10" t="n">
-        <v>1.158679723739624</v>
+        <v>1.203234314918518</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8343949913978577</v>
+        <v>0.890587329864502</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3922,7 +3922,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7473217844963074</v>
+        <v>1.240275979042053</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3930,7 +3930,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B13" t="n">
-        <v>1.060940980911255</v>
+        <v>1.032961249351501</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B14" t="n">
-        <v>1.049714326858521</v>
+        <v>1.238032937049866</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3946,7 +3946,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8255200982093811</v>
+        <v>1.320193648338318</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3954,7 +3954,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9841684699058533</v>
+        <v>0.9875086545944214</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3962,7 +3962,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9088572859764099</v>
+        <v>0.9058554172515869</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3970,7 +3970,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8961957693099976</v>
+        <v>0.8699202537536621</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3978,7 +3978,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7834683656692505</v>
+        <v>0.9677753448486328</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3986,7 +3986,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B20" t="n">
-        <v>1.10161566734314</v>
+        <v>1.26032829284668</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3994,7 +3994,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B21" t="n">
-        <v>1.139354348182678</v>
+        <v>1.189720273017883</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4002,7 +4002,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B22" t="n">
-        <v>1.119248747825623</v>
+        <v>0.9564939737319946</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4010,7 +4010,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8107954859733582</v>
+        <v>1.191799759864807</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4018,7 +4018,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9067960977554321</v>
+        <v>1.042505741119385</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4026,7 +4026,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9788749217987061</v>
+        <v>1.192519783973694</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4034,7 +4034,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B26" t="n">
-        <v>1.052298188209534</v>
+        <v>0.9927221536636353</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4042,7 +4042,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B27" t="n">
-        <v>1.070960879325867</v>
+        <v>0.8693444728851318</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4050,7 +4050,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7752665877342224</v>
+        <v>0.8560038805007935</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4058,7 +4058,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7423203587532043</v>
+        <v>0.9215948581695557</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4066,7 +4066,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B30" t="n">
-        <v>1.216068387031555</v>
+        <v>1.129199981689453</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4074,7 +4074,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B31" t="n">
-        <v>1.16221010684967</v>
+        <v>0.9365625977516174</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4082,7 +4082,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B32" t="n">
-        <v>1.184981465339661</v>
+        <v>1.050373196601868</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4090,7 +4090,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9975923299789429</v>
+        <v>1.152965784072876</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4098,7 +4098,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B34" t="n">
-        <v>1.084928393363953</v>
+        <v>1.009595155715942</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4106,7 +4106,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8407395482063293</v>
+        <v>0.9834945201873779</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4114,7 +4114,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7506497502326965</v>
+        <v>1.068353176116943</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4122,7 +4122,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B37" t="n">
-        <v>1.017309546470642</v>
+        <v>1.026159524917603</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4130,7 +4130,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B38" t="n">
-        <v>1.304531693458557</v>
+        <v>0.9179059267044067</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4138,7 +4138,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B39" t="n">
-        <v>1.070324420928955</v>
+        <v>1.217835545539856</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4146,7 +4146,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B40" t="n">
-        <v>1.115719437599182</v>
+        <v>1.11445689201355</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4154,7 +4154,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B41" t="n">
-        <v>1.019697546958923</v>
+        <v>0.9236990809440613</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4162,7 +4162,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9351677298545837</v>
+        <v>1.173807859420776</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4170,7 +4170,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9847080707550049</v>
+        <v>0.8742417693138123</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4178,7 +4178,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B44" t="n">
-        <v>1.204727172851562</v>
+        <v>1.09757387638092</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4186,7 +4186,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7631630897521973</v>
+        <v>1.165700435638428</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4194,7 +4194,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9092569351196289</v>
+        <v>1.115641713142395</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4202,7 +4202,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8521578907966614</v>
+        <v>1.111466884613037</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4210,7 +4210,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9176750779151917</v>
+        <v>1.256649851799011</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4218,7 +4218,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9871841073036194</v>
+        <v>0.8086240887641907</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4226,7 +4226,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7267552018165588</v>
+        <v>1.184394240379333</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4234,7 +4234,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9830301403999329</v>
+        <v>1.058391928672791</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4242,7 +4242,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B52" t="n">
-        <v>1.241468191146851</v>
+        <v>1.031612396240234</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4250,7 +4250,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B53" t="n">
-        <v>1.011430740356445</v>
+        <v>1.203906416893005</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4258,7 +4258,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B54" t="n">
-        <v>0.967750072479248</v>
+        <v>1.073645710945129</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4266,7 +4266,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9343399405479431</v>
+        <v>1.069727659225464</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4274,7 +4274,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9855454564094543</v>
+        <v>1.07149600982666</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4282,7 +4282,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9889766573905945</v>
+        <v>1.191232323646545</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4290,7 +4290,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7962756156921387</v>
+        <v>0.8698775768280029</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4298,7 +4298,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8058527112007141</v>
+        <v>0.9143372178077698</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4306,7 +4306,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9575760960578918</v>
+        <v>1.421991348266602</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4314,7 +4314,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B61" t="n">
-        <v>1.113264918327332</v>
+        <v>0.986024796962738</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4322,7 +4322,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B62" t="n">
-        <v>1.28514575958252</v>
+        <v>1.014879465103149</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4330,7 +4330,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8555057048797607</v>
+        <v>1.168209314346313</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4338,7 +4338,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6493158936500549</v>
+        <v>1.131107568740845</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4346,7 +4346,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7700819969177246</v>
+        <v>0.9952095746994019</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4354,7 +4354,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B66" t="n">
-        <v>1.215454936027527</v>
+        <v>1.105992436408997</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4362,7 +4362,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6408306956291199</v>
+        <v>0.9888004064559937</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4370,7 +4370,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8486632108688354</v>
+        <v>1.095972776412964</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4378,7 +4378,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8859224915504456</v>
+        <v>1.094093918800354</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4386,7 +4386,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B70" t="n">
-        <v>1.139904618263245</v>
+        <v>0.9355951547622681</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4394,7 +4394,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9113323092460632</v>
+        <v>1.206244945526123</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4402,7 +4402,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B72" t="n">
-        <v>1.090038776397705</v>
+        <v>0.9828908443450928</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4410,7 +4410,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B73" t="n">
-        <v>1.006887435913086</v>
+        <v>1.014360666275024</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4418,7 +4418,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9789571166038513</v>
+        <v>1.175379872322083</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4426,7 +4426,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B75" t="n">
-        <v>1.127527117729187</v>
+        <v>0.9850596785545349</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4434,7 +4434,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B76" t="n">
-        <v>1.085217356681824</v>
+        <v>0.9527648687362671</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4442,7 +4442,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9100627303123474</v>
+        <v>1.111335515975952</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4450,7 +4450,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8813844323158264</v>
+        <v>0.866136908531189</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4458,7 +4458,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B79" t="n">
-        <v>0.993975043296814</v>
+        <v>0.8899625539779663</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4466,7 +4466,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B80" t="n">
-        <v>1.107985377311707</v>
+        <v>1.090002417564392</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -4474,7 +4474,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9291489720344543</v>
+        <v>0.9495159387588501</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4482,7 +4482,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9475542306900024</v>
+        <v>1.154738068580627</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4490,7 +4490,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B83" t="n">
-        <v>1.1910640001297</v>
+        <v>1.234746098518372</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4498,7 +4498,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9012614488601685</v>
+        <v>0.9821292161941528</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4506,7 +4506,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B85" t="n">
-        <v>1.112593770027161</v>
+        <v>1.017785549163818</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4514,7 +4514,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B86" t="n">
-        <v>1.205180168151855</v>
+        <v>1.150430798530579</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -4522,7 +4522,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B87" t="n">
-        <v>1.031671285629272</v>
+        <v>1.044502377510071</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4530,7 +4530,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B88" t="n">
-        <v>1.249614000320435</v>
+        <v>0.8083055019378662</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -4538,7 +4538,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9827660322189331</v>
+        <v>0.8936529755592346</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4546,7 +4546,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B90" t="n">
-        <v>1.060971140861511</v>
+        <v>0.9139517545700073</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -4554,7 +4554,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B91" t="n">
-        <v>1.108973383903503</v>
+        <v>1.104445695877075</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4562,7 +4562,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4942114055156708</v>
+        <v>0.9824451804161072</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -4570,7 +4570,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8798526525497437</v>
+        <v>1.115124821662903</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -4578,7 +4578,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8314552307128906</v>
+        <v>1.026145458221436</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4586,7 +4586,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B95" t="n">
-        <v>1.039393901824951</v>
+        <v>1.139586687088013</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -4594,7 +4594,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B96" t="n">
-        <v>1.193421006202698</v>
+        <v>0.9597588181495667</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -4602,7 +4602,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5623448491096497</v>
+        <v>0.8520962595939636</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -4610,7 +4610,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B98" t="n">
-        <v>1.135271549224854</v>
+        <v>0.8707576394081116</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4618,7 +4618,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8979658484458923</v>
+        <v>1.481541514396667</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4626,7 +4626,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8657546639442444</v>
+        <v>1.115032553672791</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4634,7 +4634,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B101" t="n">
-        <v>0.921746551990509</v>
+        <v>0.928810179233551</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -4642,7 +4642,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6911779046058655</v>
+        <v>1.069965124130249</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -4650,7 +4650,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B103" t="n">
-        <v>0.8865330815315247</v>
+        <v>1.103256821632385</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4658,7 +4658,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8455710411071777</v>
+        <v>1.246769070625305</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4666,7 +4666,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B105" t="n">
-        <v>1.081747055053711</v>
+        <v>1.052097320556641</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B106" t="n">
-        <v>0.7988332509994507</v>
+        <v>1.200542569160461</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B107" t="n">
-        <v>1.073609709739685</v>
+        <v>1.062967419624329</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B108" t="n">
-        <v>1.091440558433533</v>
+        <v>1.121226787567139</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9641422033309937</v>
+        <v>1.148464322090149</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B110" t="n">
-        <v>0.4318617880344391</v>
+        <v>1.174835324287415</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7438244223594666</v>
+        <v>1.200750470161438</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8798816204071045</v>
+        <v>1.041461110115051</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B113" t="n">
-        <v>0.7913764119148254</v>
+        <v>0.8668980598449707</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -4738,7 +4738,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6753565669059753</v>
+        <v>0.8721593022346497</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4746,7 +4746,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B115" t="n">
-        <v>0.913324773311615</v>
+        <v>0.9305610060691833</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4754,7 +4754,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B116" t="n">
-        <v>0.7612940073013306</v>
+        <v>1.103274345397949</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -4762,7 +4762,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B117" t="n">
-        <v>0.845858097076416</v>
+        <v>0.9842720031738281</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -4770,7 +4770,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B118" t="n">
-        <v>0.8725807070732117</v>
+        <v>1.163809657096863</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -4778,7 +4778,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B119" t="n">
-        <v>1.083315134048462</v>
+        <v>1.1866455078125</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4786,7 +4786,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B120" t="n">
-        <v>1.115244030952454</v>
+        <v>1.002460598945618</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4794,7 +4794,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B121" t="n">
-        <v>0.8766637444496155</v>
+        <v>1.15355658531189</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4802,7 +4802,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B122" t="n">
-        <v>0.6686644554138184</v>
+        <v>1.289477229118347</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4810,7 +4810,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8740097880363464</v>
+        <v>1.126847624778748</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4818,7 +4818,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B124" t="n">
-        <v>1.061196565628052</v>
+        <v>1.053481340408325</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4826,7 +4826,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B125" t="n">
-        <v>0.6454625129699707</v>
+        <v>0.9779548048973083</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -4834,7 +4834,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B126" t="n">
-        <v>1.266897916793823</v>
+        <v>1.208376884460449</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4842,7 +4842,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B127" t="n">
-        <v>1.080913305282593</v>
+        <v>0.9599891901016235</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -4850,7 +4850,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B128" t="n">
-        <v>0.8924353122711182</v>
+        <v>0.9826822280883789</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -4858,7 +4858,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B129" t="n">
-        <v>0.57459557056427</v>
+        <v>1.168615341186523</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4866,7 +4866,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8684637546539307</v>
+        <v>1.00522518157959</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4874,7 +4874,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B131" t="n">
-        <v>1.300094962120056</v>
+        <v>1.081669688224792</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4882,7 +4882,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B132" t="n">
-        <v>1.177337408065796</v>
+        <v>1.156885266304016</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4890,7 +4890,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B133" t="n">
-        <v>0.7567511200904846</v>
+        <v>1.334644436836243</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4898,7 +4898,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B134" t="n">
-        <v>1.527538537979126</v>
+        <v>1.124924898147583</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -4906,7 +4906,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B135" t="n">
-        <v>1.043269753456116</v>
+        <v>1.118845224380493</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4914,7 +4914,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B136" t="n">
-        <v>0.9693472981452942</v>
+        <v>1.313609600067139</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -4922,7 +4922,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B137" t="n">
-        <v>0.9483002424240112</v>
+        <v>1.302764654159546</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -4930,7 +4930,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B138" t="n">
-        <v>1.065128207206726</v>
+        <v>1.315544724464417</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4938,7 +4938,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B139" t="n">
-        <v>1.00750720500946</v>
+        <v>1.033927321434021</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -4946,7 +4946,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B140" t="n">
-        <v>1.24906063079834</v>
+        <v>1.148435711860657</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4954,7 +4954,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9389751553535461</v>
+        <v>1.120575189590454</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4962,7 +4962,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B142" t="n">
-        <v>1.205454230308533</v>
+        <v>1.177074193954468</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4970,7 +4970,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B143" t="n">
-        <v>1.090412497520447</v>
+        <v>1.265831232070923</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4978,7 +4978,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B144" t="n">
-        <v>0.4832706153392792</v>
+        <v>1.136014103889465</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4986,7 +4986,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B145" t="n">
-        <v>0.8582852482795715</v>
+        <v>1.209131598472595</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4994,7 +4994,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B146" t="n">
-        <v>0.8227492570877075</v>
+        <v>0.9801272749900818</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -5002,7 +5002,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B147" t="n">
-        <v>1.032708883285522</v>
+        <v>1.267347574234009</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -5010,7 +5010,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B148" t="n">
-        <v>1.037899613380432</v>
+        <v>1.193097591400146</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -5018,7 +5018,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B149" t="n">
-        <v>0.9068951010704041</v>
+        <v>1.069988250732422</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -5026,7 +5026,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B150" t="n">
-        <v>0.9646919965744019</v>
+        <v>1.16431200504303</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -5034,7 +5034,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B151" t="n">
-        <v>0.7063092589378357</v>
+        <v>0.989467442035675</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -5042,7 +5042,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B152" t="n">
-        <v>0.7319728136062622</v>
+        <v>0.9978427886962891</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -5050,7 +5050,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B153" t="n">
-        <v>0.7718386650085449</v>
+        <v>1.155655145645142</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -5058,7 +5058,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B154" t="n">
-        <v>0.865999162197113</v>
+        <v>1.092104315757751</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -5066,7 +5066,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B155" t="n">
-        <v>1.224475502967834</v>
+        <v>1.059207439422607</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -5074,7 +5074,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B156" t="n">
-        <v>0.9594556093215942</v>
+        <v>1.057230234146118</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -5082,7 +5082,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B157" t="n">
-        <v>0.9836199283599854</v>
+        <v>0.9351963996887207</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -5090,7 +5090,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B158" t="n">
-        <v>0.9743414521217346</v>
+        <v>1.09026050567627</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -5098,7 +5098,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B159" t="n">
-        <v>1.166131019592285</v>
+        <v>1.124090671539307</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -5106,7 +5106,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B160" t="n">
-        <v>1.071929693222046</v>
+        <v>1.323836922645569</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -5114,7 +5114,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B161" t="n">
-        <v>1.126567244529724</v>
+        <v>1.116084933280945</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -5122,7 +5122,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B162" t="n">
-        <v>1.390830755233765</v>
+        <v>1.214487075805664</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -5130,7 +5130,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B163" t="n">
-        <v>0.9896483421325684</v>
+        <v>0.8879836201667786</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -5138,7 +5138,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B164" t="n">
-        <v>1.04336404800415</v>
+        <v>0.9169817566871643</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -5146,7 +5146,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B165" t="n">
-        <v>0.7829767465591431</v>
+        <v>1.30391538143158</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5154,7 +5154,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B166" t="n">
-        <v>0.6539134383201599</v>
+        <v>0.9313916563987732</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -5162,7 +5162,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B167" t="n">
-        <v>0.9084702134132385</v>
+        <v>0.9873626232147217</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -5170,7 +5170,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B168" t="n">
-        <v>1.196986436843872</v>
+        <v>1.08678925037384</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -5178,7 +5178,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B169" t="n">
-        <v>1.089855194091797</v>
+        <v>1.384688258171082</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -5186,7 +5186,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B170" t="n">
-        <v>0.9912106394767761</v>
+        <v>0.8949734568595886</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -5194,7 +5194,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B171" t="n">
-        <v>1.006351828575134</v>
+        <v>1.207584977149963</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -5202,7 +5202,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B172" t="n">
-        <v>0.8761311769485474</v>
+        <v>1.420082807540894</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -5210,7 +5210,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B173" t="n">
-        <v>0.8159218430519104</v>
+        <v>1.17396867275238</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -5218,7 +5218,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B174" t="n">
-        <v>1.119865655899048</v>
+        <v>1.220626354217529</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -5226,7 +5226,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B175" t="n">
-        <v>1.0788414478302</v>
+        <v>0.9609046578407288</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -5234,7 +5234,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B176" t="n">
-        <v>1.217877626419067</v>
+        <v>1.409272074699402</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -5242,7 +5242,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B177" t="n">
-        <v>1.045519113540649</v>
+        <v>1.00736141204834</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -5250,7 +5250,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B178" t="n">
-        <v>1.040332555770874</v>
+        <v>1.182600736618042</v>
       </c>
     </row>
   </sheetData>
